--- a/data/2024-1.xlsx
+++ b/data/2024-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TAN\Desktop\KPIWebApp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A514D44-1A2E-48F9-A725-99D391A5908E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5724B809-ACA5-4771-AFFD-EF3CAB8757E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{C5E7FFAA-552F-4261-8994-E2DFFF5B4D17}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="269">
   <si>
     <t>Department</t>
   </si>
@@ -843,6 +843,12 @@
   </si>
   <si>
     <t>TTYP</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
 </sst>
 </file>
@@ -985,14 +991,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1316,10 +1322,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="B1:O244"/>
+  <dimension ref="B1:Q244"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F114" sqref="F114"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1328,35 +1334,38 @@
     <col min="2" max="2" width="9.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="30.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="23.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="12" customWidth="1"/>
-    <col min="6" max="6" width="13" style="12" customWidth="1"/>
-    <col min="7" max="8" width="13.140625" style="12" customWidth="1"/>
-    <col min="9" max="14" width="13.140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="53.140625" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="1"/>
+    <col min="5" max="6" width="9" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="13" style="11" customWidth="1"/>
+    <col min="9" max="10" width="13.140625" style="11" customWidth="1"/>
+    <col min="11" max="16" width="13.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="53.140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+    <row r="1" spans="2:17" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-    </row>
-    <row r="3" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+    </row>
+    <row r="3" spans="2:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1366,41 +1375,47 @@
       <c r="D4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="H4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="I4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="J4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="L4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="N4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="O4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="P4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="Q4" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
@@ -1410,39 +1425,45 @@
       <c r="D5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G5" s="7">
         <v>99.347826086956516</v>
       </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="8">
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8">
         <v>99.347826086956516</v>
       </c>
-      <c r="H5" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="J5" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K5" s="3">
         <v>46</v>
       </c>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0</v>
-      </c>
       <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
         <v>41</v>
       </c>
-      <c r="M5" s="3">
+      <c r="O5" s="3">
         <v>5</v>
       </c>
-      <c r="N5" s="3">
-        <v>0</v>
-      </c>
-      <c r="O5" s="6"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
@@ -1452,39 +1473,45 @@
       <c r="D6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G6" s="7">
         <v>100</v>
       </c>
-      <c r="F6" s="7">
+      <c r="H6" s="7">
         <v>-1.6</v>
       </c>
-      <c r="G6" s="8">
+      <c r="I6" s="8">
         <v>98.4</v>
       </c>
-      <c r="H6" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I6" s="3">
+      <c r="J6" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K6" s="3">
         <v>40</v>
       </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0</v>
-      </c>
       <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
         <v>40</v>
       </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="N6" s="3">
-        <v>0</v>
-      </c>
-      <c r="O6" s="3"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
@@ -1494,39 +1521,45 @@
       <c r="D7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G7" s="7">
         <v>100</v>
       </c>
-      <c r="F7" s="7">
+      <c r="H7" s="7">
         <v>-4.3</v>
       </c>
-      <c r="G7" s="8">
+      <c r="I7" s="8">
         <v>95.7</v>
       </c>
-      <c r="H7" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I7" s="3">
+      <c r="J7" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K7" s="3">
         <v>43</v>
       </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0</v>
-      </c>
       <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
         <v>43</v>
       </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1536,39 +1569,45 @@
       <c r="D8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G8" s="7">
         <v>100</v>
       </c>
-      <c r="F8" s="7">
+      <c r="H8" s="7">
         <v>-5.4</v>
       </c>
-      <c r="G8" s="8">
+      <c r="I8" s="8">
         <v>94.6</v>
       </c>
-      <c r="H8" s="8">
+      <c r="J8" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>34</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>34</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>23</v>
       </c>
@@ -1578,39 +1617,45 @@
       <c r="D9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G9" s="7">
         <v>99.666666666666657</v>
       </c>
-      <c r="F9" s="7">
+      <c r="H9" s="7">
         <v>-1.6</v>
       </c>
-      <c r="G9" s="8">
+      <c r="I9" s="8">
         <v>98.066666666666663</v>
       </c>
-      <c r="H9" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="J9" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K9" s="3">
         <v>29</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
       <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
         <v>28</v>
       </c>
-      <c r="M9" s="3">
-        <v>1</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O9" s="3">
+        <v>1</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
@@ -1620,39 +1665,45 @@
       <c r="D10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G10" s="7">
         <v>100</v>
       </c>
-      <c r="F10" s="7">
+      <c r="H10" s="7">
         <v>-1</v>
       </c>
-      <c r="G10" s="8">
+      <c r="I10" s="8">
         <v>99</v>
       </c>
-      <c r="H10" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="J10" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K10" s="3">
         <v>51</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
       <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>51</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
@@ -1662,41 +1713,47 @@
       <c r="D11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G11" s="7">
         <v>97.966365461847388</v>
       </c>
-      <c r="F11" s="7">
-        <v>1</v>
-      </c>
-      <c r="G11" s="8">
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="8">
         <v>98.966365461847388</v>
       </c>
-      <c r="H11" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I11" s="3">
+      <c r="J11" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K11" s="3">
         <v>50</v>
       </c>
-      <c r="J11" s="3">
-        <v>0</v>
-      </c>
-      <c r="K11" s="3">
-        <v>1</v>
-      </c>
       <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <v>1</v>
+      </c>
+      <c r="N11" s="3">
         <v>39</v>
       </c>
-      <c r="M11" s="3">
+      <c r="O11" s="3">
         <v>10</v>
       </c>
-      <c r="N11" s="3">
-        <v>0</v>
-      </c>
-      <c r="O11" s="10" t="s">
+      <c r="P11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="10" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>29</v>
       </c>
@@ -1706,41 +1763,47 @@
       <c r="D12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G12" s="7">
         <v>99.8888888888889</v>
       </c>
-      <c r="F12" s="7">
+      <c r="H12" s="7">
         <v>-0.19999999999999996</v>
       </c>
-      <c r="G12" s="8">
+      <c r="I12" s="8">
         <v>99.688888888888897</v>
       </c>
-      <c r="H12" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="J12" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K12" s="3">
         <v>89</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
       <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
         <v>87</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>2</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3" t="s">
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>32</v>
       </c>
@@ -1750,41 +1813,47 @@
       <c r="D13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G13" s="7">
         <v>99.33</v>
       </c>
-      <c r="F13" s="7">
+      <c r="H13" s="7">
         <v>-0.3</v>
       </c>
-      <c r="G13" s="8">
+      <c r="I13" s="8">
         <v>99.03</v>
       </c>
-      <c r="H13" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I13" s="3">
+      <c r="J13" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K13" s="3">
         <v>80</v>
       </c>
-      <c r="J13" s="3">
-        <v>0</v>
-      </c>
-      <c r="K13" s="3">
-        <v>0</v>
-      </c>
       <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
         <v>74</v>
       </c>
-      <c r="M13" s="3">
+      <c r="O13" s="3">
         <v>6</v>
       </c>
-      <c r="N13" s="3">
-        <v>0</v>
-      </c>
-      <c r="O13" s="3" t="s">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>35</v>
       </c>
@@ -1794,39 +1863,45 @@
       <c r="D14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G14" s="7">
         <v>99.461538461538467</v>
       </c>
-      <c r="F14" s="7">
-        <v>0</v>
-      </c>
-      <c r="G14" s="8">
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="8">
         <v>99.461538461538467</v>
       </c>
-      <c r="H14" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="J14" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K14" s="3">
         <v>63</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>56</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>7</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>37</v>
       </c>
@@ -1836,39 +1911,45 @@
       <c r="D15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G15" s="7">
         <v>99.872340425531902</v>
       </c>
-      <c r="F15" s="7">
-        <v>0</v>
-      </c>
-      <c r="G15" s="8">
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+      <c r="I15" s="8">
         <v>99.872340425531902</v>
       </c>
-      <c r="H15" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I15" s="3">
+      <c r="J15" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K15" s="3">
         <v>78</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
       <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
         <v>76</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>2</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>41</v>
       </c>
@@ -1878,39 +1959,45 @@
       <c r="D16" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G16" s="7">
         <v>100</v>
       </c>
-      <c r="F16" s="7">
-        <v>0</v>
-      </c>
-      <c r="G16" s="8">
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="8">
         <v>100</v>
       </c>
-      <c r="H16" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I16" s="3">
+      <c r="J16" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K16" s="3">
         <v>47</v>
       </c>
-      <c r="J16" s="3">
-        <v>0</v>
-      </c>
-      <c r="K16" s="3">
-        <v>0</v>
-      </c>
       <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0</v>
+      </c>
+      <c r="N16" s="3">
         <v>47</v>
       </c>
-      <c r="M16" s="3">
-        <v>0</v>
-      </c>
-      <c r="N16" s="3">
-        <v>0</v>
-      </c>
-      <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O16" s="3">
+        <v>0</v>
+      </c>
+      <c r="P16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>43</v>
       </c>
@@ -1920,39 +2007,45 @@
       <c r="D17" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G17" s="7">
         <v>100.00000000000001</v>
       </c>
-      <c r="F17" s="7">
+      <c r="H17" s="7">
         <v>-0.3</v>
       </c>
-      <c r="G17" s="8">
+      <c r="I17" s="8">
         <v>99.700000000000017</v>
       </c>
-      <c r="H17" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="J17" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K17" s="3">
         <v>23</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
         <v>23</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>45</v>
       </c>
@@ -1962,39 +2055,45 @@
       <c r="D18" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G18" s="7">
         <v>99.72727272727272</v>
       </c>
-      <c r="F18" s="7">
+      <c r="H18" s="7">
         <v>-1.5</v>
       </c>
-      <c r="G18" s="8">
+      <c r="I18" s="8">
         <v>98.22727272727272</v>
       </c>
-      <c r="H18" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="J18" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K18" s="3">
         <v>28</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>27</v>
       </c>
-      <c r="M18" s="3">
-        <v>1</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O18" s="3">
+        <v>1</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>47</v>
       </c>
@@ -2004,39 +2103,45 @@
       <c r="D19" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G19" s="7">
         <v>100</v>
       </c>
-      <c r="F19" s="7">
+      <c r="H19" s="7">
         <v>-0.89999999999999991</v>
       </c>
-      <c r="G19" s="8">
+      <c r="I19" s="8">
         <v>99.1</v>
       </c>
-      <c r="H19" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I19" s="3">
+      <c r="J19" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K19" s="3">
         <v>37</v>
       </c>
-      <c r="J19" s="3">
-        <v>0</v>
-      </c>
-      <c r="K19" s="3">
-        <v>0</v>
-      </c>
       <c r="L19" s="3">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0</v>
+      </c>
+      <c r="N19" s="3">
         <v>37</v>
       </c>
-      <c r="M19" s="3">
-        <v>0</v>
-      </c>
-      <c r="N19" s="3">
-        <v>0</v>
-      </c>
-      <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O19" s="3">
+        <v>0</v>
+      </c>
+      <c r="P19" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>49</v>
       </c>
@@ -2046,39 +2151,45 @@
       <c r="D20" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G20" s="7">
         <v>100</v>
       </c>
-      <c r="F20" s="7">
-        <v>0</v>
-      </c>
-      <c r="G20" s="8">
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="8">
         <v>100</v>
       </c>
-      <c r="H20" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K20" s="3">
         <v>21</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>21</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>51</v>
       </c>
@@ -2088,39 +2199,45 @@
       <c r="D21" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G21" s="7">
         <v>99.999999999999986</v>
       </c>
-      <c r="F21" s="7">
+      <c r="H21" s="7">
         <v>-0.3</v>
       </c>
-      <c r="G21" s="8">
+      <c r="I21" s="8">
         <v>99.699999999999989</v>
       </c>
-      <c r="H21" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="J21" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K21" s="3">
         <v>19</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>19</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>53</v>
       </c>
@@ -2130,39 +2247,45 @@
       <c r="D22" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G22" s="7">
         <v>90.636254727037525</v>
       </c>
-      <c r="F22" s="7">
-        <v>0</v>
-      </c>
-      <c r="G22" s="8">
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="8">
         <v>90.636254727037525</v>
       </c>
-      <c r="H22" s="8">
+      <c r="J22" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>182</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>129</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>44</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>9</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q22" s="3"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>55</v>
       </c>
@@ -2172,39 +2295,45 @@
       <c r="D23" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G23" s="7">
         <v>98.370931076178962</v>
       </c>
-      <c r="F23" s="7">
-        <v>0</v>
-      </c>
-      <c r="G23" s="8">
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+      <c r="I23" s="8">
         <v>98.370931076178962</v>
       </c>
-      <c r="H23" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="J23" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K23" s="3">
         <v>197</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>185</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>12</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>57</v>
       </c>
@@ -2214,39 +2343,45 @@
       <c r="D24" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G24" s="7">
         <v>100</v>
       </c>
-      <c r="F24" s="7">
-        <v>0</v>
-      </c>
-      <c r="G24" s="8">
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="8">
         <v>100</v>
       </c>
-      <c r="H24" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="J24" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K24" s="3">
         <v>124</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>124</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>59</v>
       </c>
@@ -2256,39 +2391,45 @@
       <c r="D25" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G25" s="7">
         <v>100</v>
       </c>
-      <c r="F25" s="7">
+      <c r="H25" s="7">
         <v>-0.89999999999999991</v>
       </c>
-      <c r="G25" s="8">
+      <c r="I25" s="8">
         <v>99.1</v>
       </c>
-      <c r="H25" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I25" s="3">
+      <c r="J25" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K25" s="3">
         <v>151</v>
       </c>
-      <c r="J25" s="3">
-        <v>0</v>
-      </c>
-      <c r="K25" s="3">
-        <v>0</v>
-      </c>
       <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
         <v>151</v>
       </c>
-      <c r="M25" s="3">
-        <v>0</v>
-      </c>
-      <c r="N25" s="3">
-        <v>0</v>
-      </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>61</v>
       </c>
@@ -2298,39 +2439,45 @@
       <c r="D26" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G26" s="7">
         <v>94.464180206794694</v>
       </c>
-      <c r="F26" s="7">
+      <c r="H26" s="7">
         <v>-0.3</v>
       </c>
-      <c r="G26" s="8">
+      <c r="I26" s="8">
         <v>94.164180206794697</v>
       </c>
-      <c r="H26" s="8">
+      <c r="J26" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>142</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>117</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>25</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>63</v>
       </c>
@@ -2340,39 +2487,45 @@
       <c r="D27" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G27" s="7">
         <v>99.380733944954144</v>
       </c>
-      <c r="F27" s="7">
-        <v>0</v>
-      </c>
-      <c r="G27" s="8">
+      <c r="H27" s="7">
+        <v>0</v>
+      </c>
+      <c r="I27" s="8">
         <v>99.380733944954144</v>
       </c>
-      <c r="H27" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="J27" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K27" s="3">
         <v>95</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>93</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>2</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>65</v>
       </c>
@@ -2382,39 +2535,45 @@
       <c r="D28" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G28" s="7">
         <v>82.403371872134144</v>
       </c>
-      <c r="F28" s="7">
-        <v>0</v>
-      </c>
-      <c r="G28" s="8">
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="8">
         <v>82.403371872134144</v>
       </c>
-      <c r="H28" s="8">
-        <v>1</v>
-      </c>
-      <c r="I28" s="3">
+      <c r="J28" s="8">
+        <v>1</v>
+      </c>
+      <c r="K28" s="3">
         <v>208</v>
       </c>
-      <c r="J28" s="3">
-        <v>0</v>
-      </c>
-      <c r="K28" s="3">
-        <v>0</v>
-      </c>
       <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
         <v>190</v>
       </c>
-      <c r="M28" s="3">
-        <v>1</v>
-      </c>
-      <c r="N28" s="3">
+      <c r="O28" s="3">
+        <v>1</v>
+      </c>
+      <c r="P28" s="3">
         <v>17</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q28" s="3"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>67</v>
       </c>
@@ -2424,39 +2583,45 @@
       <c r="D29" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G29" s="7">
         <v>98.636363636363626</v>
       </c>
-      <c r="F29" s="7">
-        <v>0</v>
-      </c>
-      <c r="G29" s="8">
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="8">
         <v>98.636363636363626</v>
       </c>
-      <c r="H29" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I29" s="3">
+      <c r="J29" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K29" s="3">
         <v>22</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>21</v>
       </c>
-      <c r="M29" s="3">
-        <v>1</v>
-      </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O29" s="3">
+        <v>1</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>69</v>
       </c>
@@ -2466,39 +2631,45 @@
       <c r="D30" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G30" s="7">
         <v>100.00000000000001</v>
       </c>
-      <c r="F30" s="7">
-        <v>0</v>
-      </c>
-      <c r="G30" s="8">
+      <c r="H30" s="7">
+        <v>0</v>
+      </c>
+      <c r="I30" s="8">
         <v>100.00000000000001</v>
       </c>
-      <c r="H30" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I30" s="3">
+      <c r="J30" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K30" s="3">
         <v>110</v>
       </c>
-      <c r="J30" s="3">
-        <v>0</v>
-      </c>
-      <c r="K30" s="3">
-        <v>0</v>
-      </c>
       <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
         <v>110</v>
       </c>
-      <c r="M30" s="3">
-        <v>0</v>
-      </c>
-      <c r="N30" s="3">
-        <v>0</v>
-      </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>71</v>
       </c>
@@ -2508,39 +2679,45 @@
       <c r="D31" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="2">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G31" s="7">
         <v>97.098197343453521</v>
       </c>
-      <c r="F31" s="7">
+      <c r="H31" s="7">
         <v>-0.3</v>
       </c>
-      <c r="G31" s="8">
+      <c r="I31" s="8">
         <v>96.798197343453523</v>
       </c>
-      <c r="H31" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I31" s="3">
+      <c r="J31" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K31" s="3">
         <v>114</v>
       </c>
-      <c r="J31" s="3">
-        <v>0</v>
-      </c>
-      <c r="K31" s="3">
-        <v>0</v>
-      </c>
       <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
         <v>104</v>
       </c>
-      <c r="M31" s="3">
+      <c r="O31" s="3">
         <v>10</v>
       </c>
-      <c r="N31" s="3">
-        <v>0</v>
-      </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>75</v>
       </c>
@@ -2550,39 +2727,45 @@
       <c r="D32" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G32" s="7">
         <v>99.478260869565219</v>
       </c>
-      <c r="F32" s="7">
-        <v>0</v>
-      </c>
-      <c r="G32" s="8">
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="8">
         <v>99.478260869565219</v>
       </c>
-      <c r="H32" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K32" s="3">
         <v>68</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>3</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>61</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>4</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>77</v>
       </c>
@@ -2592,41 +2775,47 @@
       <c r="D33" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G33" s="7">
         <v>97.575757575757564</v>
       </c>
-      <c r="F33" s="7">
+      <c r="H33" s="7">
         <v>-0.89999999999999991</v>
       </c>
-      <c r="G33" s="8">
+      <c r="I33" s="8">
         <v>96.675757575757558</v>
       </c>
-      <c r="H33" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="J33" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K33" s="3">
         <v>64</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>3</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>57</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>2</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>2</v>
       </c>
-      <c r="O33" s="3" t="s">
+      <c r="Q33" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
         <v>79</v>
       </c>
@@ -2636,41 +2825,47 @@
       <c r="D34" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="2">
+        <v>1</v>
+      </c>
+      <c r="F34" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G34" s="7">
         <v>99.082802547770697</v>
       </c>
-      <c r="F34" s="7">
+      <c r="H34" s="7">
         <v>0.6</v>
       </c>
-      <c r="G34" s="8">
+      <c r="I34" s="8">
         <v>99.682802547770692</v>
       </c>
-      <c r="H34" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I34" s="3">
+      <c r="J34" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K34" s="3">
         <v>55</v>
       </c>
-      <c r="J34" s="3">
-        <v>0</v>
-      </c>
-      <c r="K34" s="3">
-        <v>2</v>
-      </c>
       <c r="L34" s="3">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="M34" s="3">
         <v>2</v>
       </c>
       <c r="N34" s="3">
-        <v>0</v>
-      </c>
-      <c r="O34" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O34" s="3">
+        <v>2</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
         <v>81</v>
       </c>
@@ -2680,39 +2875,45 @@
       <c r="D35" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G35" s="7">
         <v>100</v>
       </c>
-      <c r="F35" s="7">
-        <v>0</v>
-      </c>
-      <c r="G35" s="8">
+      <c r="H35" s="7">
+        <v>0</v>
+      </c>
+      <c r="I35" s="8">
         <v>100</v>
       </c>
-      <c r="H35" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="J35" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K35" s="3">
         <v>47</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>47</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3"/>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
         <v>83</v>
       </c>
@@ -2722,39 +2923,45 @@
       <c r="D36" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="2">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G36" s="7">
         <v>100</v>
       </c>
-      <c r="F36" s="7">
-        <v>0</v>
-      </c>
-      <c r="G36" s="8">
+      <c r="H36" s="7">
+        <v>0</v>
+      </c>
+      <c r="I36" s="8">
         <v>100</v>
       </c>
-      <c r="H36" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I36" s="3">
+      <c r="J36" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K36" s="3">
         <v>15</v>
       </c>
-      <c r="J36" s="3">
-        <v>0</v>
-      </c>
-      <c r="K36" s="3">
-        <v>1</v>
-      </c>
       <c r="L36" s="3">
+        <v>0</v>
+      </c>
+      <c r="M36" s="3">
+        <v>1</v>
+      </c>
+      <c r="N36" s="3">
         <v>14</v>
       </c>
-      <c r="M36" s="3">
-        <v>0</v>
-      </c>
-      <c r="N36" s="3">
-        <v>0</v>
-      </c>
-      <c r="O36" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O36" s="3">
+        <v>0</v>
+      </c>
+      <c r="P36" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="3"/>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
         <v>85</v>
       </c>
@@ -2764,41 +2971,47 @@
       <c r="D37" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="2">
+        <v>1</v>
+      </c>
+      <c r="F37" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G37" s="7">
         <v>100</v>
       </c>
-      <c r="F37" s="7">
-        <v>0</v>
-      </c>
-      <c r="G37" s="8">
+      <c r="H37" s="7">
+        <v>0</v>
+      </c>
+      <c r="I37" s="8">
         <v>100</v>
       </c>
-      <c r="H37" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I37" s="3">
+      <c r="J37" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K37" s="3">
         <v>68</v>
       </c>
-      <c r="J37" s="3">
-        <v>0</v>
-      </c>
-      <c r="K37" s="3">
+      <c r="L37" s="3">
+        <v>0</v>
+      </c>
+      <c r="M37" s="3">
         <v>2</v>
       </c>
-      <c r="L37" s="3">
+      <c r="N37" s="3">
         <v>66</v>
       </c>
-      <c r="M37" s="3">
-        <v>0</v>
-      </c>
-      <c r="N37" s="3">
-        <v>0</v>
-      </c>
-      <c r="O37" s="3" t="s">
+      <c r="O37" s="3">
+        <v>0</v>
+      </c>
+      <c r="P37" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
         <v>87</v>
       </c>
@@ -2808,41 +3021,47 @@
       <c r="D38" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="2">
+        <v>1</v>
+      </c>
+      <c r="F38" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G38" s="7">
         <v>99.999999999999986</v>
       </c>
-      <c r="F38" s="7">
+      <c r="H38" s="7">
         <v>-0.59999999999999987</v>
       </c>
-      <c r="G38" s="8">
+      <c r="I38" s="8">
         <v>99.399999999999991</v>
       </c>
-      <c r="H38" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I38" s="3">
+      <c r="J38" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K38" s="3">
         <v>69</v>
       </c>
-      <c r="J38" s="3">
-        <v>0</v>
-      </c>
-      <c r="K38" s="3">
-        <v>1</v>
-      </c>
       <c r="L38" s="3">
+        <v>0</v>
+      </c>
+      <c r="M38" s="3">
+        <v>1</v>
+      </c>
+      <c r="N38" s="3">
         <v>68</v>
       </c>
-      <c r="M38" s="3">
-        <v>0</v>
-      </c>
-      <c r="N38" s="3">
-        <v>0</v>
-      </c>
-      <c r="O38" s="3" t="s">
+      <c r="O38" s="3">
+        <v>0</v>
+      </c>
+      <c r="P38" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
         <v>89</v>
       </c>
@@ -2852,41 +3071,47 @@
       <c r="D39" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="2">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G39" s="7">
         <v>98.967741935483858</v>
       </c>
-      <c r="F39" s="7">
+      <c r="H39" s="7">
         <v>-0.3</v>
       </c>
-      <c r="G39" s="8">
+      <c r="I39" s="8">
         <v>98.667741935483861</v>
       </c>
-      <c r="H39" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I39" s="3">
+      <c r="J39" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K39" s="3">
         <v>92</v>
       </c>
-      <c r="J39" s="3">
-        <v>0</v>
-      </c>
-      <c r="K39" s="3">
+      <c r="L39" s="3">
+        <v>0</v>
+      </c>
+      <c r="M39" s="3">
         <v>2</v>
       </c>
-      <c r="L39" s="3">
+      <c r="N39" s="3">
         <v>86</v>
       </c>
-      <c r="M39" s="3">
+      <c r="O39" s="3">
         <v>4</v>
       </c>
-      <c r="N39" s="3">
-        <v>0</v>
-      </c>
-      <c r="O39" s="3" t="s">
+      <c r="P39" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
         <v>91</v>
       </c>
@@ -2896,41 +3121,47 @@
       <c r="D40" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="2">
+        <v>1</v>
+      </c>
+      <c r="F40" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G40" s="7">
         <v>100</v>
       </c>
-      <c r="F40" s="7">
+      <c r="H40" s="7">
         <v>6</v>
       </c>
-      <c r="G40" s="8">
+      <c r="I40" s="8">
         <v>106</v>
       </c>
-      <c r="H40" s="8">
+      <c r="J40" s="8">
         <v>1.3</v>
       </c>
-      <c r="I40" s="3">
+      <c r="K40" s="3">
         <v>25</v>
       </c>
-      <c r="J40" s="3">
-        <v>0</v>
-      </c>
-      <c r="K40" s="3">
+      <c r="L40" s="3">
+        <v>0</v>
+      </c>
+      <c r="M40" s="3">
         <v>6</v>
       </c>
-      <c r="L40" s="3">
+      <c r="N40" s="3">
         <v>19</v>
       </c>
-      <c r="M40" s="3">
-        <v>0</v>
-      </c>
-      <c r="N40" s="3">
-        <v>0</v>
-      </c>
-      <c r="O40" s="3" t="s">
+      <c r="O40" s="3">
+        <v>0</v>
+      </c>
+      <c r="P40" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
         <v>93</v>
       </c>
@@ -2940,39 +3171,45 @@
       <c r="D41" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="2">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G41" s="7">
         <v>100</v>
       </c>
-      <c r="F41" s="7">
-        <v>0</v>
-      </c>
-      <c r="G41" s="8">
+      <c r="H41" s="7">
+        <v>0</v>
+      </c>
+      <c r="I41" s="8">
         <v>100</v>
       </c>
-      <c r="H41" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I41" s="3">
+      <c r="J41" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K41" s="3">
         <v>32</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3">
-        <v>1</v>
-      </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>1</v>
+      </c>
+      <c r="N41" s="3">
         <v>31</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
         <v>95</v>
       </c>
@@ -2982,39 +3219,45 @@
       <c r="D42" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="2">
+        <v>1</v>
+      </c>
+      <c r="F42" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G42" s="7">
         <v>100</v>
       </c>
-      <c r="F42" s="7">
-        <v>0</v>
-      </c>
-      <c r="G42" s="8">
+      <c r="H42" s="7">
+        <v>0</v>
+      </c>
+      <c r="I42" s="8">
         <v>100</v>
       </c>
-      <c r="H42" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I42" s="3">
+      <c r="J42" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K42" s="3">
         <v>52</v>
       </c>
-      <c r="J42" s="3">
-        <v>0</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>7</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>45</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
         <v>97</v>
       </c>
@@ -3024,41 +3267,47 @@
       <c r="D43" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="2">
+        <v>1</v>
+      </c>
+      <c r="F43" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G43" s="7">
         <v>94.486486486486484</v>
       </c>
-      <c r="F43" s="7">
+      <c r="H43" s="7">
         <v>6</v>
       </c>
-      <c r="G43" s="8">
+      <c r="I43" s="8">
         <v>100.48648648648648</v>
       </c>
-      <c r="H43" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I43" s="3">
+      <c r="J43" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K43" s="3">
         <v>45</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
-      <c r="K43" s="3">
-        <v>1</v>
-      </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>1</v>
+      </c>
+      <c r="N43" s="3">
         <v>35</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>8</v>
       </c>
-      <c r="N43" s="3">
-        <v>1</v>
-      </c>
-      <c r="O43" s="3" t="s">
+      <c r="P43" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
         <v>99</v>
       </c>
@@ -3068,39 +3317,45 @@
       <c r="D44" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="2">
+        <v>1</v>
+      </c>
+      <c r="F44" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G44" s="7">
         <v>100</v>
       </c>
-      <c r="F44" s="7">
-        <v>0</v>
-      </c>
-      <c r="G44" s="8">
+      <c r="H44" s="7">
+        <v>0</v>
+      </c>
+      <c r="I44" s="8">
         <v>100</v>
       </c>
-      <c r="H44" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I44" s="3">
+      <c r="J44" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K44" s="3">
         <v>31</v>
       </c>
-      <c r="J44" s="3">
-        <v>0</v>
-      </c>
-      <c r="K44" s="3">
-        <v>1</v>
-      </c>
       <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>1</v>
+      </c>
+      <c r="N44" s="3">
         <v>30</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
-      </c>
-      <c r="N44" s="3">
-        <v>0</v>
-      </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3"/>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
         <v>102</v>
       </c>
@@ -3110,39 +3365,45 @@
       <c r="D45" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="2">
+        <v>1</v>
+      </c>
+      <c r="F45" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G45" s="7">
         <v>99.777777777777786</v>
       </c>
-      <c r="F45" s="7">
+      <c r="H45" s="7">
         <v>-0.3</v>
       </c>
-      <c r="G45" s="8">
+      <c r="I45" s="8">
         <v>99.477777777777789</v>
       </c>
-      <c r="H45" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I45" s="3">
+      <c r="J45" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K45" s="3">
         <v>106</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
         <v>104</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>2</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3"/>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="s">
         <v>104</v>
       </c>
@@ -3152,39 +3413,45 @@
       <c r="D46" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="2">
+        <v>1</v>
+      </c>
+      <c r="F46" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G46" s="7">
         <v>100</v>
       </c>
-      <c r="F46" s="7">
-        <v>0</v>
-      </c>
-      <c r="G46" s="8">
+      <c r="H46" s="7">
+        <v>0</v>
+      </c>
+      <c r="I46" s="8">
         <v>100</v>
       </c>
-      <c r="H46" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I46" s="3">
+      <c r="J46" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K46" s="3">
         <v>154</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
         <v>154</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3"/>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="s">
         <v>106</v>
       </c>
@@ -3194,41 +3461,47 @@
       <c r="D47" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47" s="2">
+        <v>1</v>
+      </c>
+      <c r="F47" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G47" s="7">
         <v>98.33846153846153</v>
       </c>
-      <c r="F47" s="7">
+      <c r="H47" s="7">
         <v>-0.19999999999999996</v>
       </c>
-      <c r="G47" s="8">
+      <c r="I47" s="8">
         <v>98.138461538461527</v>
       </c>
-      <c r="H47" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I47" s="3">
+      <c r="J47" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K47" s="3">
         <v>85</v>
       </c>
-      <c r="J47" s="3">
-        <v>0</v>
-      </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
       <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
         <v>81</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>4</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
-      </c>
-      <c r="O47" s="3" t="s">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
         <v>108</v>
       </c>
@@ -3238,39 +3511,45 @@
       <c r="D48" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48" s="2">
+        <v>1</v>
+      </c>
+      <c r="F48" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G48" s="7">
         <v>99.999999999999986</v>
       </c>
-      <c r="F48" s="7">
-        <v>0</v>
-      </c>
-      <c r="G48" s="8">
+      <c r="H48" s="7">
+        <v>0</v>
+      </c>
+      <c r="I48" s="8">
         <v>99.999999999999986</v>
       </c>
-      <c r="H48" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I48" s="3">
+      <c r="J48" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K48" s="3">
         <v>89</v>
       </c>
-      <c r="J48" s="3">
-        <v>0</v>
-      </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
       <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
         <v>89</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
-      <c r="N48" s="3">
-        <v>0</v>
-      </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3"/>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
         <v>110</v>
       </c>
@@ -3280,41 +3559,47 @@
       <c r="D49" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49" s="2">
+        <v>1</v>
+      </c>
+      <c r="F49" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G49" s="7">
         <v>100</v>
       </c>
-      <c r="F49" s="7">
+      <c r="H49" s="7">
         <v>-1.2</v>
       </c>
-      <c r="G49" s="8">
+      <c r="I49" s="8">
         <v>98.8</v>
       </c>
-      <c r="H49" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I49" s="3">
+      <c r="J49" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K49" s="3">
         <v>60</v>
       </c>
-      <c r="J49" s="3">
-        <v>0</v>
-      </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
       <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
         <v>60</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
-      </c>
-      <c r="N49" s="3">
-        <v>0</v>
-      </c>
-      <c r="O49" s="3" t="s">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
         <v>112</v>
       </c>
@@ -3324,39 +3609,45 @@
       <c r="D50" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E50" s="2">
+        <v>1</v>
+      </c>
+      <c r="F50" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G50" s="7">
         <v>99.999999999999986</v>
       </c>
-      <c r="F50" s="7">
-        <v>0</v>
-      </c>
-      <c r="G50" s="8">
+      <c r="H50" s="7">
+        <v>0</v>
+      </c>
+      <c r="I50" s="8">
         <v>99.999999999999986</v>
       </c>
-      <c r="H50" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I50" s="3">
+      <c r="J50" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K50" s="3">
         <v>87</v>
       </c>
-      <c r="J50" s="3">
-        <v>0</v>
-      </c>
-      <c r="K50" s="3">
-        <v>0</v>
-      </c>
       <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
         <v>87</v>
       </c>
-      <c r="M50" s="3">
-        <v>0</v>
-      </c>
-      <c r="N50" s="3">
-        <v>0</v>
-      </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3"/>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
         <v>114</v>
       </c>
@@ -3366,41 +3657,47 @@
       <c r="D51" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E51" s="2">
+        <v>1</v>
+      </c>
+      <c r="F51" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G51" s="7">
         <v>98.714285714285708</v>
       </c>
-      <c r="F51" s="7">
+      <c r="H51" s="7">
         <v>4</v>
       </c>
-      <c r="G51" s="8">
+      <c r="I51" s="8">
         <v>102.71428571428571</v>
       </c>
-      <c r="H51" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I51" s="3">
+      <c r="J51" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K51" s="3">
         <v>127</v>
       </c>
-      <c r="J51" s="3">
-        <v>0</v>
-      </c>
-      <c r="K51" s="3">
-        <v>0</v>
-      </c>
       <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
         <v>124</v>
       </c>
-      <c r="M51" s="3">
+      <c r="O51" s="3">
         <v>3</v>
       </c>
-      <c r="N51" s="3">
-        <v>0</v>
-      </c>
-      <c r="O51" s="3" t="s">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
         <v>116</v>
       </c>
@@ -3410,41 +3707,47 @@
       <c r="D52" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E52" s="2">
+        <v>1</v>
+      </c>
+      <c r="F52" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G52" s="7">
         <v>99.364839319470704</v>
       </c>
-      <c r="F52" s="7">
+      <c r="H52" s="7">
         <v>2.9</v>
       </c>
-      <c r="G52" s="8">
+      <c r="I52" s="8">
         <v>102.26483931947071</v>
       </c>
-      <c r="H52" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I52" s="3">
+      <c r="J52" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K52" s="3">
         <v>150</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
       <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
         <v>148</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>2</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
-      <c r="O52" s="3" t="s">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
         <v>118</v>
       </c>
@@ -3454,39 +3757,45 @@
       <c r="D53" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E53" s="2">
+        <v>1</v>
+      </c>
+      <c r="F53" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G53" s="7">
         <v>100</v>
       </c>
-      <c r="F53" s="7">
-        <v>0</v>
-      </c>
-      <c r="G53" s="8">
+      <c r="H53" s="7">
+        <v>0</v>
+      </c>
+      <c r="I53" s="8">
         <v>100</v>
       </c>
-      <c r="H53" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I53" s="3">
+      <c r="J53" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K53" s="3">
         <v>78</v>
       </c>
-      <c r="J53" s="3">
-        <v>0</v>
-      </c>
-      <c r="K53" s="3">
-        <v>0</v>
-      </c>
       <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
         <v>78</v>
       </c>
-      <c r="M53" s="3">
-        <v>0</v>
-      </c>
-      <c r="N53" s="3">
-        <v>0</v>
-      </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3"/>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
         <v>120</v>
       </c>
@@ -3496,41 +3805,47 @@
       <c r="D54" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E54" s="2">
+        <v>1</v>
+      </c>
+      <c r="F54" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G54" s="7">
         <v>100</v>
       </c>
-      <c r="F54" s="7">
+      <c r="H54" s="7">
         <v>-1.7999999999999998</v>
       </c>
-      <c r="G54" s="8">
+      <c r="I54" s="8">
         <v>98.2</v>
       </c>
-      <c r="H54" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I54" s="3">
+      <c r="J54" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K54" s="3">
         <v>65</v>
       </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
       <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
         <v>65</v>
       </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
-      <c r="O54" s="6" t="s">
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="6" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B55" s="3" t="s">
         <v>122</v>
       </c>
@@ -3540,41 +3855,47 @@
       <c r="D55" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E55" s="2">
+        <v>1</v>
+      </c>
+      <c r="F55" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G55" s="7">
         <v>99.624161073825491</v>
       </c>
-      <c r="F55" s="7">
+      <c r="H55" s="7">
         <v>1.4</v>
       </c>
-      <c r="G55" s="8">
+      <c r="I55" s="8">
         <v>101.0241610738255</v>
       </c>
-      <c r="H55" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I55" s="3">
+      <c r="J55" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K55" s="3">
         <v>139</v>
       </c>
-      <c r="J55" s="3">
-        <v>0</v>
-      </c>
-      <c r="K55" s="3">
-        <v>0</v>
-      </c>
       <c r="L55" s="3">
+        <v>0</v>
+      </c>
+      <c r="M55" s="3">
+        <v>0</v>
+      </c>
+      <c r="N55" s="3">
         <v>138</v>
       </c>
-      <c r="M55" s="3">
-        <v>1</v>
-      </c>
-      <c r="N55" s="3">
-        <v>0</v>
-      </c>
-      <c r="O55" s="3" t="s">
+      <c r="O55" s="3">
+        <v>1</v>
+      </c>
+      <c r="P55" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B56" s="3" t="s">
         <v>124</v>
       </c>
@@ -3584,41 +3905,47 @@
       <c r="D56" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E56" s="2">
+        <v>1</v>
+      </c>
+      <c r="F56" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G56" s="7">
         <v>98.969325153374228</v>
       </c>
-      <c r="F56" s="7">
+      <c r="H56" s="7">
         <v>3</v>
       </c>
-      <c r="G56" s="8">
+      <c r="I56" s="8">
         <v>101.96932515337423</v>
       </c>
-      <c r="H56" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I56" s="3">
+      <c r="J56" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K56" s="3">
         <v>161</v>
       </c>
-      <c r="J56" s="3">
-        <v>0</v>
-      </c>
-      <c r="K56" s="3">
-        <v>0</v>
-      </c>
       <c r="L56" s="3">
+        <v>0</v>
+      </c>
+      <c r="M56" s="3">
+        <v>0</v>
+      </c>
+      <c r="N56" s="3">
         <v>158</v>
       </c>
-      <c r="M56" s="3">
+      <c r="O56" s="3">
         <v>3</v>
       </c>
-      <c r="N56" s="3">
-        <v>0</v>
-      </c>
-      <c r="O56" s="3" t="s">
+      <c r="P56" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B57" s="3" t="s">
         <v>126</v>
       </c>
@@ -3628,39 +3955,45 @@
       <c r="D57" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E57" s="2">
+        <v>1</v>
+      </c>
+      <c r="F57" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G57" s="7">
         <v>93.961259079903144</v>
       </c>
-      <c r="F57" s="7">
+      <c r="H57" s="7">
         <v>-1.5</v>
       </c>
-      <c r="G57" s="8">
+      <c r="I57" s="8">
         <v>92.461259079903144</v>
       </c>
-      <c r="H57" s="8">
+      <c r="J57" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>53</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
       <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
         <v>47</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>4</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q57" s="3"/>
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
         <v>129</v>
       </c>
@@ -3670,39 +4003,45 @@
       <c r="D58" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E58" s="2">
+        <v>1</v>
+      </c>
+      <c r="F58" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G58" s="7">
         <v>99.195121951219505</v>
       </c>
-      <c r="F58" s="7">
+      <c r="H58" s="7">
         <v>-0.89999999999999991</v>
       </c>
-      <c r="G58" s="8">
+      <c r="I58" s="8">
         <v>98.2951219512195</v>
       </c>
-      <c r="H58" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I58" s="3">
+      <c r="J58" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K58" s="3">
         <v>78</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>67</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>11</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3"/>
+    </row>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="s">
         <v>131</v>
       </c>
@@ -3712,39 +4051,45 @@
       <c r="D59" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E59" s="2">
+        <v>1</v>
+      </c>
+      <c r="F59" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G59" s="7">
         <v>96.537003610108314</v>
       </c>
-      <c r="F59" s="7">
+      <c r="H59" s="7">
         <v>-0.6</v>
       </c>
-      <c r="G59" s="8">
+      <c r="I59" s="8">
         <v>95.93700361010832</v>
       </c>
-      <c r="H59" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I59" s="3">
+      <c r="J59" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K59" s="3">
         <v>75</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
       <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
         <v>68</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>7</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3"/>
+    </row>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="s">
         <v>133</v>
       </c>
@@ -3754,39 +4099,45 @@
       <c r="D60" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E60" s="2">
+        <v>1</v>
+      </c>
+      <c r="F60" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G60" s="7">
         <v>98.825806451612891</v>
       </c>
-      <c r="F60" s="7">
-        <v>0</v>
-      </c>
-      <c r="G60" s="8">
+      <c r="H60" s="7">
+        <v>0</v>
+      </c>
+      <c r="I60" s="8">
         <v>98.825806451612891</v>
       </c>
-      <c r="H60" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I60" s="3">
+      <c r="J60" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K60" s="3">
         <v>40</v>
       </c>
-      <c r="J60" s="3">
-        <v>0</v>
-      </c>
-      <c r="K60" s="3">
-        <v>0</v>
-      </c>
       <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3">
         <v>38</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2</v>
       </c>
-      <c r="N60" s="3">
-        <v>0</v>
-      </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="3"/>
+    </row>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="s">
         <v>135</v>
       </c>
@@ -3796,39 +4147,45 @@
       <c r="D61" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E61" s="2">
+        <v>1</v>
+      </c>
+      <c r="F61" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G61" s="7">
         <v>81.130645161290317</v>
       </c>
-      <c r="F61" s="7">
-        <v>0</v>
-      </c>
-      <c r="G61" s="8">
+      <c r="H61" s="7">
+        <v>0</v>
+      </c>
+      <c r="I61" s="8">
         <v>81.130645161290317</v>
       </c>
-      <c r="H61" s="8">
-        <v>1</v>
-      </c>
-      <c r="I61" s="3">
+      <c r="J61" s="8">
+        <v>1</v>
+      </c>
+      <c r="K61" s="3">
         <v>49</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>35</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>7</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3"/>
+    </row>
+    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="s">
         <v>138</v>
       </c>
@@ -3838,39 +4195,45 @@
       <c r="D62" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E62" s="7">
+      <c r="E62" s="2">
+        <v>1</v>
+      </c>
+      <c r="F62" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G62" s="7">
         <v>99.72727272727272</v>
       </c>
-      <c r="F62" s="7">
-        <v>0</v>
-      </c>
-      <c r="G62" s="8">
+      <c r="H62" s="7">
+        <v>0</v>
+      </c>
+      <c r="I62" s="8">
         <v>99.72727272727272</v>
       </c>
-      <c r="H62" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I62" s="3">
+      <c r="J62" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K62" s="3">
         <v>65</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
       <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
         <v>63</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>2</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3"/>
+    </row>
+    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B63" s="3" t="s">
         <v>140</v>
       </c>
@@ -3880,39 +4243,45 @@
       <c r="D63" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E63" s="7">
+      <c r="E63" s="2">
+        <v>1</v>
+      </c>
+      <c r="F63" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G63" s="7">
         <v>99.999999999999986</v>
       </c>
-      <c r="F63" s="7">
-        <v>0</v>
-      </c>
-      <c r="G63" s="8">
+      <c r="H63" s="7">
+        <v>0</v>
+      </c>
+      <c r="I63" s="8">
         <v>99.999999999999986</v>
       </c>
-      <c r="H63" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I63" s="3">
+      <c r="J63" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K63" s="3">
         <v>37</v>
       </c>
-      <c r="J63" s="3">
-        <v>0</v>
-      </c>
-      <c r="K63" s="3">
-        <v>0</v>
-      </c>
       <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
         <v>37</v>
       </c>
-      <c r="M63" s="3">
-        <v>0</v>
-      </c>
-      <c r="N63" s="3">
-        <v>0</v>
-      </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3"/>
+    </row>
+    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
         <v>142</v>
       </c>
@@ -3922,39 +4291,45 @@
       <c r="D64" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E64" s="7">
+      <c r="E64" s="2">
+        <v>1</v>
+      </c>
+      <c r="F64" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G64" s="7">
         <v>99.777777777777771</v>
       </c>
-      <c r="F64" s="7">
+      <c r="H64" s="7">
         <v>-0.3</v>
       </c>
-      <c r="G64" s="8">
+      <c r="I64" s="8">
         <v>99.477777777777774</v>
       </c>
-      <c r="H64" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I64" s="3">
+      <c r="J64" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K64" s="3">
         <v>206</v>
       </c>
-      <c r="J64" s="3">
-        <v>0</v>
-      </c>
-      <c r="K64" s="3">
-        <v>0</v>
-      </c>
       <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
         <v>205</v>
       </c>
-      <c r="M64" s="3">
-        <v>1</v>
-      </c>
-      <c r="N64" s="3">
-        <v>0</v>
-      </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O64" s="3">
+        <v>1</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3"/>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B65" s="3" t="s">
         <v>144</v>
       </c>
@@ -3964,39 +4339,45 @@
       <c r="D65" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E65" s="7">
+      <c r="E65" s="2">
+        <v>1</v>
+      </c>
+      <c r="F65" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G65" s="7">
         <v>99.999999999999986</v>
       </c>
-      <c r="F65" s="7">
-        <v>0</v>
-      </c>
-      <c r="G65" s="8">
+      <c r="H65" s="7">
+        <v>0</v>
+      </c>
+      <c r="I65" s="8">
         <v>99.999999999999986</v>
       </c>
-      <c r="H65" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I65" s="3">
+      <c r="J65" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K65" s="3">
         <v>192</v>
       </c>
-      <c r="J65" s="3">
-        <v>0</v>
-      </c>
-      <c r="K65" s="3">
-        <v>0</v>
-      </c>
       <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
         <v>192</v>
       </c>
-      <c r="M65" s="3">
-        <v>0</v>
-      </c>
-      <c r="N65" s="3">
-        <v>0</v>
-      </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3"/>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B66" s="3" t="s">
         <v>146</v>
       </c>
@@ -4006,41 +4387,47 @@
       <c r="D66" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E66" s="2">
+        <v>1</v>
+      </c>
+      <c r="F66" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G66" s="7">
         <v>95.669902912621353</v>
       </c>
-      <c r="F66" s="7">
+      <c r="H66" s="7">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G66" s="8">
+      <c r="I66" s="8">
         <v>100.76990291262135</v>
       </c>
-      <c r="H66" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I66" s="3">
+      <c r="J66" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K66" s="3">
         <v>57</v>
       </c>
-      <c r="J66" s="3">
-        <v>0</v>
-      </c>
-      <c r="K66" s="3">
-        <v>0</v>
-      </c>
       <c r="L66" s="3">
+        <v>0</v>
+      </c>
+      <c r="M66" s="3">
+        <v>0</v>
+      </c>
+      <c r="N66" s="3">
         <v>50</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>7</v>
       </c>
-      <c r="N66" s="3">
-        <v>0</v>
-      </c>
-      <c r="O66" s="3" t="s">
+      <c r="P66" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B67" s="3" t="s">
         <v>148</v>
       </c>
@@ -4050,39 +4437,45 @@
       <c r="D67" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E67" s="7">
+      <c r="E67" s="2">
+        <v>1</v>
+      </c>
+      <c r="F67" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G67" s="7">
         <v>99.538461538461547</v>
       </c>
-      <c r="F67" s="7">
+      <c r="H67" s="7">
         <v>-0.3</v>
       </c>
-      <c r="G67" s="8">
+      <c r="I67" s="8">
         <v>99.23846153846155</v>
       </c>
-      <c r="H67" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I67" s="3">
+      <c r="J67" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K67" s="3">
         <v>58</v>
       </c>
-      <c r="J67" s="3">
-        <v>0</v>
-      </c>
-      <c r="K67" s="3">
-        <v>0</v>
-      </c>
       <c r="L67" s="3">
+        <v>0</v>
+      </c>
+      <c r="M67" s="3">
+        <v>0</v>
+      </c>
+      <c r="N67" s="3">
         <v>57</v>
       </c>
-      <c r="M67" s="3">
-        <v>0</v>
-      </c>
-      <c r="N67" s="3">
-        <v>0</v>
-      </c>
-      <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O67" s="3">
+        <v>0</v>
+      </c>
+      <c r="P67" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B68" s="3" t="s">
         <v>150</v>
       </c>
@@ -4092,39 +4485,45 @@
       <c r="D68" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E68" s="7">
+      <c r="E68" s="2">
+        <v>1</v>
+      </c>
+      <c r="F68" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G68" s="7">
         <v>98.684210526315795</v>
       </c>
-      <c r="F68" s="7">
-        <v>0</v>
-      </c>
-      <c r="G68" s="8">
+      <c r="H68" s="7">
+        <v>0</v>
+      </c>
+      <c r="I68" s="8">
         <v>98.684210526315795</v>
       </c>
-      <c r="H68" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I68" s="3">
+      <c r="J68" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K68" s="3">
         <v>64</v>
       </c>
-      <c r="J68" s="3">
-        <v>0</v>
-      </c>
-      <c r="K68" s="3">
-        <v>0</v>
-      </c>
       <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
         <v>62</v>
       </c>
-      <c r="M68" s="3">
+      <c r="O68" s="3">
         <v>2</v>
       </c>
-      <c r="N68" s="3">
-        <v>0</v>
-      </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3"/>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B69" s="3" t="s">
         <v>152</v>
       </c>
@@ -4134,41 +4533,47 @@
       <c r="D69" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E69" s="7">
+      <c r="E69" s="2">
+        <v>1</v>
+      </c>
+      <c r="F69" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G69" s="7">
         <v>94.568259385665527</v>
       </c>
-      <c r="F69" s="7">
+      <c r="H69" s="7">
         <v>6</v>
       </c>
-      <c r="G69" s="8">
+      <c r="I69" s="8">
         <v>100.56825938566553</v>
       </c>
-      <c r="H69" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I69" s="3">
+      <c r="J69" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K69" s="3">
         <v>76</v>
       </c>
-      <c r="J69" s="3">
-        <v>0</v>
-      </c>
-      <c r="K69" s="3">
-        <v>0</v>
-      </c>
       <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
         <v>63</v>
       </c>
-      <c r="M69" s="3">
+      <c r="O69" s="3">
         <v>13</v>
       </c>
-      <c r="N69" s="3">
-        <v>0</v>
-      </c>
-      <c r="O69" s="3" t="s">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B70" s="3" t="s">
         <v>154</v>
       </c>
@@ -4178,39 +4583,45 @@
       <c r="D70" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E70" s="7">
+      <c r="E70" s="2">
+        <v>1</v>
+      </c>
+      <c r="F70" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G70" s="7">
         <v>99.829383886255926</v>
       </c>
-      <c r="F70" s="7">
-        <v>0</v>
-      </c>
-      <c r="G70" s="8">
+      <c r="H70" s="7">
+        <v>0</v>
+      </c>
+      <c r="I70" s="8">
         <v>99.829383886255926</v>
       </c>
-      <c r="H70" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I70" s="3">
+      <c r="J70" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K70" s="3">
         <v>130</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>129</v>
       </c>
-      <c r="M70" s="3">
-        <v>1</v>
-      </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O70" s="3">
+        <v>1</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3"/>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B71" s="3" t="s">
         <v>157</v>
       </c>
@@ -4220,39 +4631,45 @@
       <c r="D71" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E71" s="7">
+      <c r="E71" s="2">
+        <v>1</v>
+      </c>
+      <c r="F71" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G71" s="7">
         <v>99.872340425531917</v>
       </c>
-      <c r="F71" s="7">
-        <v>0</v>
-      </c>
-      <c r="G71" s="8">
+      <c r="H71" s="7">
+        <v>0</v>
+      </c>
+      <c r="I71" s="8">
         <v>99.872340425531917</v>
       </c>
-      <c r="H71" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I71" s="3">
+      <c r="J71" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K71" s="3">
         <v>71</v>
       </c>
-      <c r="J71" s="3">
-        <v>0</v>
-      </c>
-      <c r="K71" s="3">
-        <v>0</v>
-      </c>
       <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
         <v>69</v>
       </c>
-      <c r="M71" s="3">
+      <c r="O71" s="3">
         <v>2</v>
       </c>
-      <c r="N71" s="3">
-        <v>0</v>
-      </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3"/>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B72" s="3" t="s">
         <v>159</v>
       </c>
@@ -4262,41 +4679,47 @@
       <c r="D72" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E72" s="7">
+      <c r="E72" s="2">
+        <v>1</v>
+      </c>
+      <c r="F72" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G72" s="7">
         <v>100</v>
       </c>
-      <c r="F72" s="7">
+      <c r="H72" s="7">
         <v>-0.60000000000000009</v>
       </c>
-      <c r="G72" s="8">
+      <c r="I72" s="8">
         <v>99.4</v>
       </c>
-      <c r="H72" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I72" s="3">
+      <c r="J72" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K72" s="3">
         <v>55</v>
       </c>
-      <c r="J72" s="3">
-        <v>0</v>
-      </c>
-      <c r="K72" s="3">
-        <v>0</v>
-      </c>
       <c r="L72" s="3">
+        <v>0</v>
+      </c>
+      <c r="M72" s="3">
+        <v>0</v>
+      </c>
+      <c r="N72" s="3">
         <v>55</v>
       </c>
-      <c r="M72" s="3">
-        <v>0</v>
-      </c>
-      <c r="N72" s="3">
-        <v>0</v>
-      </c>
-      <c r="O72" s="3" t="s">
+      <c r="O72" s="3">
+        <v>0</v>
+      </c>
+      <c r="P72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B73" s="3" t="s">
         <v>161</v>
       </c>
@@ -4306,39 +4729,45 @@
       <c r="D73" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E73" s="7">
+      <c r="E73" s="2">
+        <v>1</v>
+      </c>
+      <c r="F73" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G73" s="7">
         <v>100</v>
       </c>
-      <c r="F73" s="7">
-        <v>0</v>
-      </c>
-      <c r="G73" s="8">
+      <c r="H73" s="7">
+        <v>0</v>
+      </c>
+      <c r="I73" s="8">
         <v>100</v>
       </c>
-      <c r="H73" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I73" s="3">
+      <c r="J73" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K73" s="3">
         <v>40</v>
       </c>
-      <c r="J73" s="3">
-        <v>0</v>
-      </c>
-      <c r="K73" s="3">
-        <v>0</v>
-      </c>
       <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
         <v>40</v>
       </c>
-      <c r="M73" s="3">
-        <v>0</v>
-      </c>
-      <c r="N73" s="3">
-        <v>0</v>
-      </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3"/>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B74" s="3" t="s">
         <v>163</v>
       </c>
@@ -4348,41 +4777,47 @@
       <c r="D74" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E74" s="7">
+      <c r="E74" s="2">
+        <v>1</v>
+      </c>
+      <c r="F74" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G74" s="7">
         <v>100</v>
       </c>
-      <c r="F74" s="7">
+      <c r="H74" s="7">
         <v>0.3</v>
       </c>
-      <c r="G74" s="8">
+      <c r="I74" s="8">
         <v>100.3</v>
       </c>
-      <c r="H74" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I74" s="3">
+      <c r="J74" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K74" s="3">
         <v>35</v>
       </c>
-      <c r="J74" s="3">
-        <v>0</v>
-      </c>
-      <c r="K74" s="3">
-        <v>0</v>
-      </c>
       <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
         <v>35</v>
       </c>
-      <c r="M74" s="3">
-        <v>0</v>
-      </c>
-      <c r="N74" s="3">
-        <v>0</v>
-      </c>
-      <c r="O74" s="3" t="s">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B75" s="3" t="s">
         <v>166</v>
       </c>
@@ -4392,41 +4827,47 @@
       <c r="D75" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E75" s="7">
+      <c r="E75" s="2">
+        <v>1</v>
+      </c>
+      <c r="F75" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G75" s="7">
         <v>100</v>
       </c>
-      <c r="F75" s="7">
+      <c r="H75" s="7">
         <v>6</v>
       </c>
-      <c r="G75" s="8">
+      <c r="I75" s="8">
         <v>106</v>
       </c>
-      <c r="H75" s="8">
+      <c r="J75" s="8">
         <v>1.3</v>
       </c>
-      <c r="I75" s="3">
+      <c r="K75" s="3">
         <v>89</v>
       </c>
-      <c r="J75" s="3">
-        <v>0</v>
-      </c>
-      <c r="K75" s="3">
-        <v>0</v>
-      </c>
       <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
         <v>89</v>
       </c>
-      <c r="M75" s="3">
-        <v>0</v>
-      </c>
-      <c r="N75" s="3">
-        <v>0</v>
-      </c>
-      <c r="O75" s="3" t="s">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B76" s="3" t="s">
         <v>168</v>
       </c>
@@ -4436,41 +4877,47 @@
       <c r="D76" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E76" s="7">
+      <c r="E76" s="2">
+        <v>1</v>
+      </c>
+      <c r="F76" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G76" s="7">
         <v>99.238095238095255</v>
       </c>
-      <c r="F76" s="7">
+      <c r="H76" s="7">
         <v>3.6</v>
       </c>
-      <c r="G76" s="8">
+      <c r="I76" s="8">
         <v>102.83809523809525</v>
       </c>
-      <c r="H76" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I76" s="3">
+      <c r="J76" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K76" s="3">
         <v>38</v>
       </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
       <c r="L76" s="3">
+        <v>0</v>
+      </c>
+      <c r="M76" s="3">
+        <v>0</v>
+      </c>
+      <c r="N76" s="3">
         <v>37</v>
       </c>
-      <c r="M76" s="3">
-        <v>1</v>
-      </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
-      <c r="O76" s="3" t="s">
+      <c r="O76" s="3">
+        <v>1</v>
+      </c>
+      <c r="P76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B77" s="3" t="s">
         <v>170</v>
       </c>
@@ -4480,41 +4927,47 @@
       <c r="D77" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E77" s="7">
+      <c r="E77" s="2">
+        <v>1</v>
+      </c>
+      <c r="F77" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G77" s="7">
         <v>99.066666666666663</v>
       </c>
-      <c r="F77" s="7">
+      <c r="H77" s="7">
         <v>2.1</v>
       </c>
-      <c r="G77" s="8">
+      <c r="I77" s="8">
         <v>101.16666666666666</v>
       </c>
-      <c r="H77" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I77" s="3">
+      <c r="J77" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K77" s="3">
         <v>48</v>
       </c>
-      <c r="J77" s="3">
-        <v>0</v>
-      </c>
-      <c r="K77" s="3">
-        <v>0</v>
-      </c>
       <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
         <v>46</v>
       </c>
-      <c r="M77" s="3">
-        <v>0</v>
-      </c>
-      <c r="N77" s="3">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
         <v>2</v>
       </c>
-      <c r="O77" s="3" t="s">
+      <c r="Q77" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B78" s="3" t="s">
         <v>172</v>
       </c>
@@ -4524,41 +4977,47 @@
       <c r="D78" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E78" s="7">
+      <c r="E78" s="2">
+        <v>1</v>
+      </c>
+      <c r="F78" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G78" s="7">
         <v>100</v>
       </c>
-      <c r="F78" s="7">
+      <c r="H78" s="7">
         <v>3</v>
       </c>
-      <c r="G78" s="8">
+      <c r="I78" s="8">
         <v>103</v>
       </c>
-      <c r="H78" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I78" s="3">
+      <c r="J78" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K78" s="3">
         <v>50</v>
       </c>
-      <c r="J78" s="3">
-        <v>0</v>
-      </c>
-      <c r="K78" s="3">
-        <v>0</v>
-      </c>
       <c r="L78" s="3">
+        <v>0</v>
+      </c>
+      <c r="M78" s="3">
+        <v>0</v>
+      </c>
+      <c r="N78" s="3">
         <v>50</v>
       </c>
-      <c r="M78" s="3">
-        <v>0</v>
-      </c>
-      <c r="N78" s="3">
-        <v>0</v>
-      </c>
-      <c r="O78" s="3" t="s">
+      <c r="O78" s="3">
+        <v>0</v>
+      </c>
+      <c r="P78" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B79" s="3" t="s">
         <v>174</v>
       </c>
@@ -4568,39 +5027,45 @@
       <c r="D79" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E79" s="7">
+      <c r="E79" s="2">
+        <v>1</v>
+      </c>
+      <c r="F79" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G79" s="7">
         <v>100</v>
       </c>
-      <c r="F79" s="7">
+      <c r="H79" s="7">
         <v>2.6999999999999997</v>
       </c>
-      <c r="G79" s="8">
+      <c r="I79" s="8">
         <v>102.7</v>
       </c>
-      <c r="H79" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I79" s="3">
+      <c r="J79" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K79" s="3">
         <v>103</v>
       </c>
-      <c r="J79" s="3">
-        <v>0</v>
-      </c>
-      <c r="K79" s="3">
-        <v>0</v>
-      </c>
       <c r="L79" s="3">
+        <v>0</v>
+      </c>
+      <c r="M79" s="3">
+        <v>0</v>
+      </c>
+      <c r="N79" s="3">
         <v>103</v>
       </c>
-      <c r="M79" s="3">
-        <v>0</v>
-      </c>
-      <c r="N79" s="3">
-        <v>0</v>
-      </c>
-      <c r="O79" s="3"/>
-    </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O79" s="3">
+        <v>0</v>
+      </c>
+      <c r="P79" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="3"/>
+    </row>
+    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B80" s="3" t="s">
         <v>176</v>
       </c>
@@ -4610,39 +5075,45 @@
       <c r="D80" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E80" s="7">
+      <c r="E80" s="2">
+        <v>1</v>
+      </c>
+      <c r="F80" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G80" s="7">
         <v>100</v>
       </c>
-      <c r="F80" s="7">
+      <c r="H80" s="7">
         <v>4.5</v>
       </c>
-      <c r="G80" s="8">
+      <c r="I80" s="8">
         <v>104.5</v>
       </c>
-      <c r="H80" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I80" s="3">
+      <c r="J80" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K80" s="3">
         <v>90</v>
       </c>
-      <c r="J80" s="3">
-        <v>0</v>
-      </c>
-      <c r="K80" s="3">
-        <v>0</v>
-      </c>
       <c r="L80" s="3">
+        <v>0</v>
+      </c>
+      <c r="M80" s="3">
+        <v>0</v>
+      </c>
+      <c r="N80" s="3">
         <v>90</v>
       </c>
-      <c r="M80" s="3">
-        <v>0</v>
-      </c>
-      <c r="N80" s="3">
-        <v>0</v>
-      </c>
-      <c r="O80" s="3"/>
-    </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O80" s="3">
+        <v>0</v>
+      </c>
+      <c r="P80" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="3"/>
+    </row>
+    <row r="81" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B81" s="3" t="s">
         <v>178</v>
       </c>
@@ -4652,39 +5123,45 @@
       <c r="D81" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E81" s="7">
+      <c r="E81" s="2">
+        <v>1</v>
+      </c>
+      <c r="F81" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G81" s="7">
         <v>100</v>
       </c>
-      <c r="F81" s="7">
+      <c r="H81" s="7">
         <v>1.5</v>
       </c>
-      <c r="G81" s="8">
+      <c r="I81" s="8">
         <v>101.5</v>
       </c>
-      <c r="H81" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="J81" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K81" s="3">
         <v>46</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>46</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3"/>
+    </row>
+    <row r="82" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B82" s="3" t="s">
         <v>180</v>
       </c>
@@ -4694,39 +5171,45 @@
       <c r="D82" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E82" s="7">
+      <c r="E82" s="2">
+        <v>1</v>
+      </c>
+      <c r="F82" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G82" s="7">
         <v>99.5</v>
       </c>
-      <c r="F82" s="7">
+      <c r="H82" s="7">
         <v>-0.59999999999999964</v>
       </c>
-      <c r="G82" s="8">
+      <c r="I82" s="8">
         <v>98.9</v>
       </c>
-      <c r="H82" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I82" s="3">
+      <c r="J82" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K82" s="3">
         <v>57</v>
       </c>
-      <c r="J82" s="3">
-        <v>0</v>
-      </c>
-      <c r="K82" s="3">
-        <v>0</v>
-      </c>
       <c r="L82" s="3">
+        <v>0</v>
+      </c>
+      <c r="M82" s="3">
+        <v>0</v>
+      </c>
+      <c r="N82" s="3">
         <v>56</v>
       </c>
-      <c r="M82" s="3">
-        <v>0</v>
-      </c>
-      <c r="N82" s="3">
-        <v>1</v>
-      </c>
-      <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O82" s="3">
+        <v>0</v>
+      </c>
+      <c r="P82" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B83" s="3" t="s">
         <v>182</v>
       </c>
@@ -4736,41 +5219,47 @@
       <c r="D83" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E83" s="7">
+      <c r="E83" s="2">
+        <v>1</v>
+      </c>
+      <c r="F83" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G83" s="7">
         <v>100</v>
       </c>
-      <c r="F83" s="7">
+      <c r="H83" s="7">
         <v>4.8</v>
       </c>
-      <c r="G83" s="8">
+      <c r="I83" s="8">
         <v>104.8</v>
       </c>
-      <c r="H83" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I83" s="3">
+      <c r="J83" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K83" s="3">
         <v>60</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
       <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
         <v>60</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
-      <c r="O83" s="3" t="s">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B84" s="3" t="s">
         <v>184</v>
       </c>
@@ -4780,39 +5269,45 @@
       <c r="D84" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E84" s="7">
+      <c r="E84" s="2">
+        <v>1</v>
+      </c>
+      <c r="F84" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G84" s="7">
         <v>100</v>
       </c>
-      <c r="F84" s="7">
-        <v>1.2</v>
-      </c>
-      <c r="G84" s="8">
+      <c r="H84" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="I84" s="8">
         <v>101.2</v>
       </c>
-      <c r="H84" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I84" s="3">
+      <c r="J84" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K84" s="3">
         <v>98</v>
       </c>
-      <c r="J84" s="3">
-        <v>0</v>
-      </c>
-      <c r="K84" s="3">
-        <v>0</v>
-      </c>
       <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
         <v>98</v>
       </c>
-      <c r="M84" s="3">
-        <v>0</v>
-      </c>
-      <c r="N84" s="3">
-        <v>0</v>
-      </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3"/>
+    </row>
+    <row r="85" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B85" s="3" t="s">
         <v>207</v>
       </c>
@@ -4822,41 +5317,47 @@
       <c r="D85" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E85" s="7">
+      <c r="E85" s="2">
+        <v>1</v>
+      </c>
+      <c r="F85" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G85" s="7">
         <v>99.436619718309856</v>
       </c>
-      <c r="F85" s="7">
+      <c r="H85" s="7">
         <v>3</v>
       </c>
-      <c r="G85" s="8">
+      <c r="I85" s="8">
         <v>102.43661971830986</v>
       </c>
-      <c r="H85" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I85" s="3">
+      <c r="J85" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K85" s="3">
         <v>129</v>
       </c>
-      <c r="J85" s="3">
-        <v>0</v>
-      </c>
-      <c r="K85" s="3">
-        <v>0</v>
-      </c>
       <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
         <v>128</v>
       </c>
-      <c r="M85" s="3">
-        <v>1</v>
-      </c>
-      <c r="N85" s="3">
-        <v>0</v>
-      </c>
-      <c r="O85" s="3" t="s">
+      <c r="O85" s="3">
+        <v>1</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B86" s="3" t="s">
         <v>210</v>
       </c>
@@ -4866,41 +5367,47 @@
       <c r="D86" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E86" s="7">
+      <c r="E86" s="2">
+        <v>1</v>
+      </c>
+      <c r="F86" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G86" s="7">
         <v>100</v>
       </c>
-      <c r="F86" s="7">
+      <c r="H86" s="7">
         <v>3</v>
       </c>
-      <c r="G86" s="8">
+      <c r="I86" s="8">
         <v>103</v>
       </c>
-      <c r="H86" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I86" s="3">
+      <c r="J86" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K86" s="3">
         <v>168</v>
       </c>
-      <c r="J86" s="3">
-        <v>0</v>
-      </c>
-      <c r="K86" s="3">
-        <v>0</v>
-      </c>
       <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
         <v>168</v>
       </c>
-      <c r="M86" s="3">
-        <v>0</v>
-      </c>
-      <c r="N86" s="3">
-        <v>0</v>
-      </c>
-      <c r="O86" s="3" t="s">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B87" s="3" t="s">
         <v>212</v>
       </c>
@@ -4910,39 +5417,45 @@
       <c r="D87" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E87" s="7">
+      <c r="E87" s="2">
+        <v>1</v>
+      </c>
+      <c r="F87" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G87" s="7">
         <v>93.07692307692308</v>
       </c>
-      <c r="F87" s="7">
-        <v>0</v>
-      </c>
-      <c r="G87" s="8">
+      <c r="H87" s="7">
+        <v>0</v>
+      </c>
+      <c r="I87" s="8">
         <v>93.07692307692308</v>
       </c>
-      <c r="H87" s="8">
+      <c r="J87" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I87" s="3">
+      <c r="K87" s="3">
         <v>26</v>
       </c>
-      <c r="J87" s="3">
-        <v>0</v>
-      </c>
-      <c r="K87" s="3">
-        <v>0</v>
-      </c>
       <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
         <v>20</v>
       </c>
-      <c r="M87" s="3">
+      <c r="O87" s="3">
         <v>6</v>
       </c>
-      <c r="N87" s="3">
-        <v>0</v>
-      </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3"/>
+    </row>
+    <row r="88" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B88" s="3" t="s">
         <v>214</v>
       </c>
@@ -4952,39 +5465,45 @@
       <c r="D88" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E88" s="7">
+      <c r="E88" s="2">
+        <v>1</v>
+      </c>
+      <c r="F88" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G88" s="7">
         <v>100</v>
       </c>
-      <c r="F88" s="7">
-        <v>0</v>
-      </c>
-      <c r="G88" s="8">
+      <c r="H88" s="7">
+        <v>0</v>
+      </c>
+      <c r="I88" s="8">
         <v>100</v>
       </c>
-      <c r="H88" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I88" s="3">
+      <c r="J88" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K88" s="3">
         <v>34</v>
       </c>
-      <c r="J88" s="3">
-        <v>0</v>
-      </c>
-      <c r="K88" s="3">
-        <v>0</v>
-      </c>
       <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
         <v>34</v>
       </c>
-      <c r="M88" s="3">
-        <v>0</v>
-      </c>
-      <c r="N88" s="3">
-        <v>0</v>
-      </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3"/>
+    </row>
+    <row r="89" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B89" s="3" t="s">
         <v>216</v>
       </c>
@@ -4994,41 +5513,47 @@
       <c r="D89" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E89" s="7">
+      <c r="E89" s="2">
+        <v>1</v>
+      </c>
+      <c r="F89" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G89" s="7">
         <v>100</v>
       </c>
-      <c r="F89" s="7">
+      <c r="H89" s="7">
         <v>-1</v>
       </c>
-      <c r="G89" s="8">
+      <c r="I89" s="8">
         <v>99</v>
       </c>
-      <c r="H89" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="J89" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K89" s="3">
         <v>32</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>32</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3" t="s">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B90" s="3" t="s">
         <v>219</v>
       </c>
@@ -5038,39 +5563,45 @@
       <c r="D90" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E90" s="7">
+      <c r="E90" s="2">
+        <v>1</v>
+      </c>
+      <c r="F90" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G90" s="7">
         <v>100</v>
       </c>
-      <c r="F90" s="7">
-        <v>0</v>
-      </c>
-      <c r="G90" s="8">
+      <c r="H90" s="7">
+        <v>0</v>
+      </c>
+      <c r="I90" s="8">
         <v>100</v>
       </c>
-      <c r="H90" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I90" s="3">
+      <c r="J90" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K90" s="3">
         <v>45</v>
       </c>
-      <c r="J90" s="3">
-        <v>0</v>
-      </c>
-      <c r="K90" s="3">
-        <v>0</v>
-      </c>
       <c r="L90" s="3">
+        <v>0</v>
+      </c>
+      <c r="M90" s="3">
+        <v>0</v>
+      </c>
+      <c r="N90" s="3">
         <v>45</v>
       </c>
-      <c r="M90" s="3">
-        <v>0</v>
-      </c>
-      <c r="N90" s="3">
-        <v>0</v>
-      </c>
-      <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O90" s="3">
+        <v>0</v>
+      </c>
+      <c r="P90" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B91" s="3" t="s">
         <v>221</v>
       </c>
@@ -5080,39 +5611,45 @@
       <c r="D91" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E91" s="7">
+      <c r="E91" s="2">
+        <v>1</v>
+      </c>
+      <c r="F91" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G91" s="7">
         <v>100</v>
       </c>
-      <c r="F91" s="7">
-        <v>0</v>
-      </c>
-      <c r="G91" s="8">
+      <c r="H91" s="7">
+        <v>0</v>
+      </c>
+      <c r="I91" s="8">
         <v>100</v>
       </c>
-      <c r="H91" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I91" s="3">
+      <c r="J91" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K91" s="3">
         <v>30</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>30</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3"/>
+    </row>
+    <row r="92" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B92" s="3" t="s">
         <v>223</v>
       </c>
@@ -5122,41 +5659,47 @@
       <c r="D92" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E92" s="7">
+      <c r="E92" s="2">
+        <v>1</v>
+      </c>
+      <c r="F92" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G92" s="7">
         <v>98.465753424657535</v>
       </c>
-      <c r="F92" s="7">
+      <c r="H92" s="7">
         <v>2.4</v>
       </c>
-      <c r="G92" s="8">
+      <c r="I92" s="8">
         <v>100.86575342465754</v>
       </c>
-      <c r="H92" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I92" s="3">
+      <c r="J92" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K92" s="3">
         <v>54</v>
       </c>
-      <c r="J92" s="3">
-        <v>0</v>
-      </c>
-      <c r="K92" s="3">
-        <v>0</v>
-      </c>
       <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
         <v>51</v>
       </c>
-      <c r="M92" s="3">
+      <c r="O92" s="3">
         <v>3</v>
       </c>
-      <c r="N92" s="3">
-        <v>0</v>
-      </c>
-      <c r="O92" s="3" t="s">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B93" s="3" t="s">
         <v>225</v>
       </c>
@@ -5166,41 +5709,47 @@
       <c r="D93" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E93" s="7">
+      <c r="E93" s="2">
+        <v>1</v>
+      </c>
+      <c r="F93" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G93" s="7">
         <v>100</v>
       </c>
-      <c r="F93" s="7">
+      <c r="H93" s="7">
         <v>2.7</v>
       </c>
-      <c r="G93" s="8">
+      <c r="I93" s="8">
         <v>102.7</v>
       </c>
-      <c r="H93" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I93" s="3">
+      <c r="J93" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K93" s="3">
         <v>34</v>
       </c>
-      <c r="J93" s="3">
-        <v>0</v>
-      </c>
-      <c r="K93" s="3">
-        <v>0</v>
-      </c>
       <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
         <v>34</v>
       </c>
-      <c r="M93" s="3">
-        <v>0</v>
-      </c>
-      <c r="N93" s="3">
-        <v>0</v>
-      </c>
-      <c r="O93" s="3" t="s">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="94" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B94" s="3" t="s">
         <v>227</v>
       </c>
@@ -5210,39 +5759,45 @@
       <c r="D94" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E94" s="7">
+      <c r="E94" s="2">
+        <v>1</v>
+      </c>
+      <c r="F94" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G94" s="7">
         <v>100</v>
       </c>
-      <c r="F94" s="7">
-        <v>0</v>
-      </c>
-      <c r="G94" s="8">
+      <c r="H94" s="7">
+        <v>0</v>
+      </c>
+      <c r="I94" s="8">
         <v>100</v>
       </c>
-      <c r="H94" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I94" s="3">
+      <c r="J94" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K94" s="3">
         <v>42</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>42</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3"/>
+    </row>
+    <row r="95" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B95" s="3" t="s">
         <v>229</v>
       </c>
@@ -5252,39 +5807,45 @@
       <c r="D95" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E95" s="7">
+      <c r="E95" s="2">
+        <v>1</v>
+      </c>
+      <c r="F95" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G95" s="7">
         <v>100</v>
       </c>
-      <c r="F95" s="7">
-        <v>0</v>
-      </c>
-      <c r="G95" s="8">
+      <c r="H95" s="7">
+        <v>0</v>
+      </c>
+      <c r="I95" s="8">
         <v>100</v>
       </c>
-      <c r="H95" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I95" s="3">
+      <c r="J95" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K95" s="3">
         <v>27</v>
       </c>
-      <c r="J95" s="3">
-        <v>0</v>
-      </c>
-      <c r="K95" s="3">
-        <v>0</v>
-      </c>
       <c r="L95" s="3">
+        <v>0</v>
+      </c>
+      <c r="M95" s="3">
+        <v>0</v>
+      </c>
+      <c r="N95" s="3">
         <v>27</v>
       </c>
-      <c r="M95" s="3">
-        <v>0</v>
-      </c>
-      <c r="N95" s="3">
-        <v>0</v>
-      </c>
-      <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O95" s="3">
+        <v>0</v>
+      </c>
+      <c r="P95" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B96" s="3" t="s">
         <v>231</v>
       </c>
@@ -5294,39 +5855,45 @@
       <c r="D96" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E96" s="7">
+      <c r="E96" s="2">
+        <v>1</v>
+      </c>
+      <c r="F96" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G96" s="7">
         <v>100</v>
       </c>
-      <c r="F96" s="7">
-        <v>0</v>
-      </c>
-      <c r="G96" s="8">
+      <c r="H96" s="7">
+        <v>0</v>
+      </c>
+      <c r="I96" s="8">
         <v>100</v>
       </c>
-      <c r="H96" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I96" s="3">
+      <c r="J96" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K96" s="3">
         <v>30</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>30</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3"/>
+    </row>
+    <row r="97" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B97" s="3" t="s">
         <v>233</v>
       </c>
@@ -5336,39 +5903,45 @@
       <c r="D97" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E97" s="7">
+      <c r="E97" s="2">
+        <v>1</v>
+      </c>
+      <c r="F97" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G97" s="7">
         <v>100</v>
       </c>
-      <c r="F97" s="7">
-        <v>0</v>
-      </c>
-      <c r="G97" s="8">
+      <c r="H97" s="7">
+        <v>0</v>
+      </c>
+      <c r="I97" s="8">
         <v>100</v>
       </c>
-      <c r="H97" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I97" s="3">
+      <c r="J97" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K97" s="3">
         <v>26</v>
       </c>
-      <c r="J97" s="3">
-        <v>0</v>
-      </c>
-      <c r="K97" s="3">
-        <v>0</v>
-      </c>
       <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
         <v>26</v>
       </c>
-      <c r="M97" s="3">
-        <v>0</v>
-      </c>
-      <c r="N97" s="3">
-        <v>0</v>
-      </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3"/>
+    </row>
+    <row r="98" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B98" s="3" t="s">
         <v>235</v>
       </c>
@@ -5378,39 +5951,45 @@
       <c r="D98" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E98" s="7">
+      <c r="E98" s="2">
+        <v>1</v>
+      </c>
+      <c r="F98" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G98" s="7">
         <v>100</v>
       </c>
-      <c r="F98" s="7">
-        <v>0</v>
-      </c>
-      <c r="G98" s="8">
+      <c r="H98" s="7">
+        <v>0</v>
+      </c>
+      <c r="I98" s="8">
         <v>100</v>
       </c>
-      <c r="H98" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I98" s="3">
+      <c r="J98" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K98" s="3">
         <v>43</v>
       </c>
-      <c r="J98" s="3">
-        <v>0</v>
-      </c>
-      <c r="K98" s="3">
-        <v>0</v>
-      </c>
       <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
         <v>43</v>
       </c>
-      <c r="M98" s="3">
-        <v>0</v>
-      </c>
-      <c r="N98" s="3">
-        <v>0</v>
-      </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3"/>
+    </row>
+    <row r="99" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B99" s="3" t="s">
         <v>237</v>
       </c>
@@ -5420,39 +5999,45 @@
       <c r="D99" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E99" s="7">
+      <c r="E99" s="2">
+        <v>1</v>
+      </c>
+      <c r="F99" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G99" s="7">
         <v>98.8</v>
       </c>
-      <c r="F99" s="7">
-        <v>0</v>
-      </c>
-      <c r="G99" s="8">
+      <c r="H99" s="7">
+        <v>0</v>
+      </c>
+      <c r="I99" s="8">
         <v>98.8</v>
       </c>
-      <c r="H99" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I99" s="3">
+      <c r="J99" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K99" s="3">
         <v>25</v>
       </c>
-      <c r="J99" s="3">
-        <v>0</v>
-      </c>
-      <c r="K99" s="3">
-        <v>0</v>
-      </c>
       <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
         <v>24</v>
       </c>
-      <c r="M99" s="3">
-        <v>1</v>
-      </c>
-      <c r="N99" s="3">
-        <v>0</v>
-      </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O99" s="3">
+        <v>1</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3"/>
+    </row>
+    <row r="100" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B100" s="3" t="s">
         <v>239</v>
       </c>
@@ -5462,39 +6047,45 @@
       <c r="D100" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E100" s="7">
+      <c r="E100" s="2">
+        <v>1</v>
+      </c>
+      <c r="F100" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G100" s="7">
         <v>100</v>
       </c>
-      <c r="F100" s="7">
-        <v>0</v>
-      </c>
-      <c r="G100" s="8">
+      <c r="H100" s="7">
+        <v>0</v>
+      </c>
+      <c r="I100" s="8">
         <v>100</v>
       </c>
-      <c r="H100" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K100" s="3">
         <v>23</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>23</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3"/>
+    </row>
+    <row r="101" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B101" s="3" t="s">
         <v>241</v>
       </c>
@@ -5504,39 +6095,45 @@
       <c r="D101" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E101" s="7">
+      <c r="E101" s="2">
+        <v>1</v>
+      </c>
+      <c r="F101" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G101" s="7">
         <v>98.5</v>
       </c>
-      <c r="F101" s="7">
+      <c r="H101" s="7">
         <v>-1.5</v>
       </c>
-      <c r="G101" s="8">
+      <c r="I101" s="8">
         <v>97</v>
       </c>
-      <c r="H101" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="J101" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K101" s="3">
         <v>53</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>50</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>3</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3"/>
+    </row>
+    <row r="102" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B102" s="3" t="s">
         <v>243</v>
       </c>
@@ -5546,39 +6143,45 @@
       <c r="D102" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E102" s="7">
+      <c r="E102" s="2">
+        <v>1</v>
+      </c>
+      <c r="F102" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G102" s="7">
         <v>100</v>
       </c>
-      <c r="F102" s="7">
+      <c r="H102" s="7">
         <v>-1.7999999999999998</v>
       </c>
-      <c r="G102" s="8">
+      <c r="I102" s="8">
         <v>98.2</v>
       </c>
-      <c r="H102" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="J102" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K102" s="3">
         <v>26</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>26</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3"/>
-    </row>
-    <row r="103" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3"/>
+    </row>
+    <row r="103" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B103" s="3" t="s">
         <v>248</v>
       </c>
@@ -5588,39 +6191,45 @@
       <c r="D103" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E103" s="7">
+      <c r="E103" s="2">
+        <v>1</v>
+      </c>
+      <c r="F103" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G103" s="7">
         <v>101.27515151515153</v>
       </c>
-      <c r="F103" s="7">
-        <v>0</v>
-      </c>
-      <c r="G103" s="8">
+      <c r="H103" s="7">
+        <v>0</v>
+      </c>
+      <c r="I103" s="8">
         <v>101.27515151515153</v>
       </c>
-      <c r="H103" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I103" s="3">
+      <c r="J103" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K103" s="3">
         <v>60</v>
       </c>
-      <c r="J103" s="3">
-        <v>0</v>
-      </c>
-      <c r="K103" s="3">
-        <v>0</v>
-      </c>
       <c r="L103" s="3">
+        <v>0</v>
+      </c>
+      <c r="M103" s="3">
+        <v>0</v>
+      </c>
+      <c r="N103" s="3">
         <v>56</v>
       </c>
-      <c r="M103" s="3">
+      <c r="O103" s="3">
         <v>3</v>
       </c>
-      <c r="N103" s="3">
-        <v>1</v>
-      </c>
-      <c r="O103" s="3"/>
-    </row>
-    <row r="104" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P103" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q103" s="3"/>
+    </row>
+    <row r="104" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B104" s="3" t="s">
         <v>250</v>
       </c>
@@ -5630,39 +6239,45 @@
       <c r="D104" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E104" s="7">
+      <c r="E104" s="2">
+        <v>1</v>
+      </c>
+      <c r="F104" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G104" s="7">
         <v>99.111111111111114</v>
       </c>
-      <c r="F104" s="7">
+      <c r="H104" s="7">
         <v>-1.5</v>
       </c>
-      <c r="G104" s="8">
+      <c r="I104" s="8">
         <v>97.611111111111114</v>
       </c>
-      <c r="H104" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I104" s="3">
+      <c r="J104" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K104" s="3">
         <v>51</v>
       </c>
-      <c r="J104" s="3">
-        <v>0</v>
-      </c>
-      <c r="K104" s="3">
-        <v>0</v>
-      </c>
       <c r="L104" s="3">
+        <v>0</v>
+      </c>
+      <c r="M104" s="3">
+        <v>0</v>
+      </c>
+      <c r="N104" s="3">
         <v>51</v>
       </c>
-      <c r="M104" s="3">
-        <v>0</v>
-      </c>
-      <c r="N104" s="3">
-        <v>0</v>
-      </c>
-      <c r="O104" s="3"/>
-    </row>
-    <row r="105" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O104" s="3">
+        <v>0</v>
+      </c>
+      <c r="P104" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q104" s="3"/>
+    </row>
+    <row r="105" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B105" s="3" t="s">
         <v>252</v>
       </c>
@@ -5672,39 +6287,45 @@
       <c r="D105" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E105" s="7">
+      <c r="E105" s="2">
+        <v>1</v>
+      </c>
+      <c r="F105" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G105" s="7">
         <v>95.063818967709111</v>
       </c>
-      <c r="F105" s="7">
+      <c r="H105" s="7">
         <v>-0.89999999999999991</v>
       </c>
-      <c r="G105" s="8">
+      <c r="I105" s="8">
         <v>94.163818967709105</v>
       </c>
-      <c r="H105" s="8">
+      <c r="J105" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I105" s="3">
+      <c r="K105" s="3">
         <v>78</v>
       </c>
-      <c r="J105" s="3">
-        <v>0</v>
-      </c>
-      <c r="K105" s="3">
-        <v>0</v>
-      </c>
       <c r="L105" s="3">
+        <v>0</v>
+      </c>
+      <c r="M105" s="3">
+        <v>0</v>
+      </c>
+      <c r="N105" s="3">
         <v>67</v>
       </c>
-      <c r="M105" s="3">
+      <c r="O105" s="3">
         <v>3</v>
       </c>
-      <c r="N105" s="3">
+      <c r="P105" s="3">
         <v>8</v>
       </c>
-      <c r="O105" s="3"/>
-    </row>
-    <row r="106" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q105" s="3"/>
+    </row>
+    <row r="106" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B106" s="3" t="s">
         <v>254</v>
       </c>
@@ -5714,39 +6335,45 @@
       <c r="D106" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E106" s="7">
+      <c r="E106" s="2">
+        <v>1</v>
+      </c>
+      <c r="F106" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G106" s="7">
         <v>100</v>
       </c>
-      <c r="F106" s="7">
-        <v>0</v>
-      </c>
-      <c r="G106" s="8">
+      <c r="H106" s="7">
+        <v>0</v>
+      </c>
+      <c r="I106" s="8">
         <v>100</v>
       </c>
-      <c r="H106" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I106" s="3">
+      <c r="J106" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K106" s="3">
         <v>66</v>
       </c>
-      <c r="J106" s="3">
-        <v>0</v>
-      </c>
-      <c r="K106" s="3">
-        <v>0</v>
-      </c>
       <c r="L106" s="3">
+        <v>0</v>
+      </c>
+      <c r="M106" s="3">
+        <v>0</v>
+      </c>
+      <c r="N106" s="3">
         <v>66</v>
       </c>
-      <c r="M106" s="3">
-        <v>0</v>
-      </c>
-      <c r="N106" s="3">
-        <v>0</v>
-      </c>
-      <c r="O106" s="3"/>
-    </row>
-    <row r="107" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O106" s="3">
+        <v>0</v>
+      </c>
+      <c r="P106" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q106" s="3"/>
+    </row>
+    <row r="107" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B107" s="3" t="s">
         <v>256</v>
       </c>
@@ -5756,39 +6383,45 @@
       <c r="D107" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E107" s="7">
+      <c r="E107" s="2">
+        <v>1</v>
+      </c>
+      <c r="F107" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G107" s="7">
         <v>96.427522935779834</v>
       </c>
-      <c r="F107" s="7">
-        <v>0</v>
-      </c>
-      <c r="G107" s="8">
+      <c r="H107" s="7">
+        <v>0</v>
+      </c>
+      <c r="I107" s="8">
         <v>96.427522935779834</v>
       </c>
-      <c r="H107" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I107" s="3">
+      <c r="J107" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K107" s="3">
         <v>33</v>
       </c>
-      <c r="J107" s="3">
-        <v>0</v>
-      </c>
-      <c r="K107" s="3">
-        <v>0</v>
-      </c>
       <c r="L107" s="3">
+        <v>0</v>
+      </c>
+      <c r="M107" s="3">
+        <v>0</v>
+      </c>
+      <c r="N107" s="3">
         <v>29</v>
       </c>
-      <c r="M107" s="3">
+      <c r="O107" s="3">
         <v>4</v>
       </c>
-      <c r="N107" s="3">
-        <v>0</v>
-      </c>
-      <c r="O107" s="3"/>
-    </row>
-    <row r="108" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P107" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q107" s="3"/>
+    </row>
+    <row r="108" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B108" s="3" t="s">
         <v>258</v>
       </c>
@@ -5798,39 +6431,45 @@
       <c r="D108" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E108" s="7">
+      <c r="E108" s="2">
+        <v>1</v>
+      </c>
+      <c r="F108" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G108" s="7">
         <v>98.578947368421041</v>
       </c>
-      <c r="F108" s="7">
+      <c r="H108" s="7">
         <v>-0.89999999999999991</v>
       </c>
-      <c r="G108" s="8">
+      <c r="I108" s="8">
         <v>97.678947368421035</v>
       </c>
-      <c r="H108" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I108" s="3">
+      <c r="J108" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K108" s="3">
         <v>63</v>
       </c>
-      <c r="J108" s="3">
-        <v>0</v>
-      </c>
-      <c r="K108" s="3">
-        <v>0</v>
-      </c>
       <c r="L108" s="3">
+        <v>0</v>
+      </c>
+      <c r="M108" s="3">
+        <v>0</v>
+      </c>
+      <c r="N108" s="3">
         <v>61</v>
       </c>
-      <c r="M108" s="3">
+      <c r="O108" s="3">
         <v>2</v>
       </c>
-      <c r="N108" s="3">
-        <v>0</v>
-      </c>
-      <c r="O108" s="3"/>
-    </row>
-    <row r="109" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P108" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q108" s="3"/>
+    </row>
+    <row r="109" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B109" s="3" t="s">
         <v>260</v>
       </c>
@@ -5840,39 +6479,45 @@
       <c r="D109" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E109" s="7">
+      <c r="E109" s="2">
+        <v>1</v>
+      </c>
+      <c r="F109" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G109" s="7">
         <v>100</v>
       </c>
-      <c r="F109" s="7">
-        <v>0</v>
-      </c>
-      <c r="G109" s="8">
+      <c r="H109" s="7">
+        <v>0</v>
+      </c>
+      <c r="I109" s="8">
         <v>100</v>
       </c>
-      <c r="H109" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I109" s="3">
+      <c r="J109" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K109" s="3">
         <v>110</v>
       </c>
-      <c r="J109" s="3">
-        <v>0</v>
-      </c>
-      <c r="K109" s="3">
-        <v>1</v>
-      </c>
       <c r="L109" s="3">
+        <v>0</v>
+      </c>
+      <c r="M109" s="3">
+        <v>1</v>
+      </c>
+      <c r="N109" s="3">
         <v>109</v>
       </c>
-      <c r="M109" s="3">
-        <v>0</v>
-      </c>
-      <c r="N109" s="3">
-        <v>0</v>
-      </c>
-      <c r="O109" s="3"/>
-    </row>
-    <row r="110" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O109" s="3">
+        <v>0</v>
+      </c>
+      <c r="P109" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q109" s="3"/>
+    </row>
+    <row r="110" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B110" s="3" t="s">
         <v>262</v>
       </c>
@@ -5882,39 +6527,45 @@
       <c r="D110" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E110" s="7">
+      <c r="E110" s="2">
+        <v>1</v>
+      </c>
+      <c r="F110" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G110" s="7">
         <v>100.00000000000001</v>
       </c>
-      <c r="F110" s="7">
-        <v>0</v>
-      </c>
-      <c r="G110" s="8">
+      <c r="H110" s="7">
+        <v>0</v>
+      </c>
+      <c r="I110" s="8">
         <v>100.00000000000001</v>
       </c>
-      <c r="H110" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I110" s="3">
+      <c r="J110" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K110" s="3">
         <v>52</v>
       </c>
-      <c r="J110" s="3">
-        <v>0</v>
-      </c>
-      <c r="K110" s="3">
-        <v>0</v>
-      </c>
       <c r="L110" s="3">
+        <v>0</v>
+      </c>
+      <c r="M110" s="3">
+        <v>0</v>
+      </c>
+      <c r="N110" s="3">
         <v>52</v>
       </c>
-      <c r="M110" s="3">
-        <v>0</v>
-      </c>
-      <c r="N110" s="3">
-        <v>0</v>
-      </c>
-      <c r="O110" s="3"/>
-    </row>
-    <row r="111" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O110" s="3">
+        <v>0</v>
+      </c>
+      <c r="P110" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q110" s="3"/>
+    </row>
+    <row r="111" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B111" s="3" t="s">
         <v>264</v>
       </c>
@@ -5924,975 +6575,1243 @@
       <c r="D111" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E111" s="7">
+      <c r="E111" s="2">
+        <v>1</v>
+      </c>
+      <c r="F111" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G111" s="7">
         <v>83.285714285714278</v>
       </c>
-      <c r="F111" s="7">
-        <v>0</v>
-      </c>
-      <c r="G111" s="8">
+      <c r="H111" s="7">
+        <v>0</v>
+      </c>
+      <c r="I111" s="8">
         <v>83.285714285714278</v>
       </c>
-      <c r="H111" s="8">
-        <v>1</v>
-      </c>
-      <c r="I111" s="3">
+      <c r="J111" s="8">
+        <v>1</v>
+      </c>
+      <c r="K111" s="3">
         <v>36</v>
       </c>
-      <c r="J111" s="3">
-        <v>0</v>
-      </c>
-      <c r="K111" s="3">
-        <v>0</v>
-      </c>
       <c r="L111" s="3">
+        <v>0</v>
+      </c>
+      <c r="M111" s="3">
+        <v>0</v>
+      </c>
+      <c r="N111" s="3">
         <v>36</v>
       </c>
-      <c r="M111" s="3">
-        <v>0</v>
-      </c>
-      <c r="N111" s="3">
-        <v>0</v>
-      </c>
-      <c r="O111" s="3"/>
-    </row>
-    <row r="112" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O111" s="3">
+        <v>0</v>
+      </c>
+      <c r="P111" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="3"/>
+    </row>
+    <row r="112" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="2"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="7"/>
-      <c r="G112" s="8"/>
-      <c r="H112" s="8"/>
-      <c r="I112" s="3"/>
-      <c r="J112" s="3"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="7"/>
+      <c r="I112" s="8"/>
+      <c r="J112" s="8"/>
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
       <c r="M112" s="3"/>
       <c r="N112" s="3"/>
       <c r="O112" s="3"/>
-    </row>
-    <row r="113" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P112" s="3"/>
+      <c r="Q112" s="3"/>
+    </row>
+    <row r="113" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="2"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="7"/>
-      <c r="G113" s="8"/>
-      <c r="H113" s="8"/>
-      <c r="I113" s="3"/>
-      <c r="J113" s="3"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="7"/>
+      <c r="I113" s="8"/>
+      <c r="J113" s="8"/>
       <c r="K113" s="3"/>
       <c r="L113" s="3"/>
       <c r="M113" s="3"/>
       <c r="N113" s="3"/>
       <c r="O113" s="3"/>
-    </row>
-    <row r="114" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P113" s="3"/>
+      <c r="Q113" s="3"/>
+    </row>
+    <row r="114" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="2"/>
-      <c r="E114" s="7"/>
-      <c r="F114" s="7"/>
-      <c r="G114" s="8"/>
-      <c r="H114" s="8"/>
-      <c r="I114" s="3"/>
-      <c r="J114" s="3"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="7"/>
+      <c r="I114" s="8"/>
+      <c r="J114" s="8"/>
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
       <c r="M114" s="3"/>
       <c r="N114" s="3"/>
       <c r="O114" s="3"/>
-    </row>
-    <row r="115" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P114" s="3"/>
+      <c r="Q114" s="3"/>
+    </row>
+    <row r="115" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="2"/>
-      <c r="E115" s="7"/>
-      <c r="F115" s="7"/>
-      <c r="G115" s="8"/>
-      <c r="H115" s="8"/>
-      <c r="I115" s="3"/>
-      <c r="J115" s="3"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="7"/>
+      <c r="H115" s="7"/>
+      <c r="I115" s="8"/>
+      <c r="J115" s="8"/>
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
       <c r="M115" s="3"/>
       <c r="N115" s="3"/>
       <c r="O115" s="3"/>
-    </row>
-    <row r="116" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P115" s="3"/>
+      <c r="Q115" s="3"/>
+    </row>
+    <row r="116" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="2"/>
-      <c r="E116" s="7"/>
-      <c r="F116" s="7"/>
-      <c r="G116" s="8"/>
-      <c r="H116" s="8"/>
-      <c r="I116" s="3"/>
-      <c r="J116" s="3"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="7"/>
+      <c r="H116" s="7"/>
+      <c r="I116" s="8"/>
+      <c r="J116" s="8"/>
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
       <c r="M116" s="3"/>
       <c r="N116" s="3"/>
       <c r="O116" s="3"/>
-    </row>
-    <row r="117" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P116" s="3"/>
+      <c r="Q116" s="3"/>
+    </row>
+    <row r="117" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="2"/>
-      <c r="E117" s="7"/>
-      <c r="F117" s="7"/>
-      <c r="G117" s="8"/>
-      <c r="H117" s="8"/>
-      <c r="I117" s="3"/>
-      <c r="J117" s="3"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="7"/>
+      <c r="H117" s="7"/>
+      <c r="I117" s="8"/>
+      <c r="J117" s="8"/>
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
       <c r="M117" s="3"/>
       <c r="N117" s="3"/>
       <c r="O117" s="3"/>
-    </row>
-    <row r="118" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P117" s="3"/>
+      <c r="Q117" s="3"/>
+    </row>
+    <row r="118" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="2"/>
-      <c r="E118" s="7"/>
-      <c r="F118" s="7"/>
-      <c r="G118" s="8"/>
-      <c r="H118" s="8"/>
-      <c r="I118" s="3"/>
-      <c r="J118" s="3"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="7"/>
+      <c r="H118" s="7"/>
+      <c r="I118" s="8"/>
+      <c r="J118" s="8"/>
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
       <c r="M118" s="3"/>
       <c r="N118" s="3"/>
       <c r="O118" s="3"/>
-    </row>
-    <row r="119" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P118" s="3"/>
+      <c r="Q118" s="3"/>
+    </row>
+    <row r="119" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="2"/>
-      <c r="E119" s="7"/>
-      <c r="F119" s="7"/>
-      <c r="G119" s="8"/>
-      <c r="H119" s="8"/>
-      <c r="I119" s="3"/>
-      <c r="J119" s="3"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="7"/>
+      <c r="H119" s="7"/>
+      <c r="I119" s="8"/>
+      <c r="J119" s="8"/>
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
       <c r="M119" s="3"/>
       <c r="N119" s="3"/>
       <c r="O119" s="3"/>
-    </row>
-    <row r="120" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P119" s="3"/>
+      <c r="Q119" s="3"/>
+    </row>
+    <row r="120" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="2"/>
-      <c r="E120" s="7"/>
-      <c r="F120" s="7"/>
-      <c r="G120" s="8"/>
-      <c r="H120" s="8"/>
-      <c r="I120" s="3"/>
-      <c r="J120" s="3"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="7"/>
+      <c r="H120" s="7"/>
+      <c r="I120" s="8"/>
+      <c r="J120" s="8"/>
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
       <c r="M120" s="3"/>
       <c r="N120" s="3"/>
       <c r="O120" s="3"/>
-    </row>
-    <row r="121" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P120" s="3"/>
+      <c r="Q120" s="3"/>
+    </row>
+    <row r="121" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="2"/>
-      <c r="E121" s="7"/>
-      <c r="F121" s="7"/>
-      <c r="G121" s="8"/>
-      <c r="H121" s="8"/>
-      <c r="I121" s="3"/>
-      <c r="J121" s="3"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="7"/>
+      <c r="H121" s="7"/>
+      <c r="I121" s="8"/>
+      <c r="J121" s="8"/>
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
       <c r="M121" s="3"/>
       <c r="N121" s="3"/>
       <c r="O121" s="3"/>
-    </row>
-    <row r="122" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P121" s="3"/>
+      <c r="Q121" s="3"/>
+    </row>
+    <row r="122" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="2"/>
-      <c r="E122" s="7"/>
-      <c r="F122" s="7"/>
-      <c r="G122" s="8"/>
-      <c r="H122" s="8"/>
-      <c r="I122" s="3"/>
-      <c r="J122" s="3"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="7"/>
+      <c r="H122" s="7"/>
+      <c r="I122" s="8"/>
+      <c r="J122" s="8"/>
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
       <c r="M122" s="3"/>
       <c r="N122" s="3"/>
       <c r="O122" s="3"/>
-    </row>
-    <row r="123" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P122" s="3"/>
+      <c r="Q122" s="3"/>
+    </row>
+    <row r="123" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="2"/>
-      <c r="E123" s="7"/>
-      <c r="F123" s="7"/>
-      <c r="G123" s="8"/>
-      <c r="H123" s="8"/>
-      <c r="I123" s="3"/>
-      <c r="J123" s="3"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="7"/>
+      <c r="H123" s="7"/>
+      <c r="I123" s="8"/>
+      <c r="J123" s="8"/>
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
       <c r="M123" s="3"/>
       <c r="N123" s="3"/>
       <c r="O123" s="3"/>
-    </row>
-    <row r="124" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P123" s="3"/>
+      <c r="Q123" s="3"/>
+    </row>
+    <row r="124" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="2"/>
-      <c r="E124" s="7"/>
-      <c r="F124" s="7"/>
-      <c r="G124" s="8"/>
-      <c r="H124" s="8"/>
-      <c r="I124" s="3"/>
-      <c r="J124" s="3"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="7"/>
+      <c r="H124" s="7"/>
+      <c r="I124" s="8"/>
+      <c r="J124" s="8"/>
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
       <c r="M124" s="3"/>
       <c r="N124" s="3"/>
       <c r="O124" s="3"/>
-    </row>
-    <row r="125" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P124" s="3"/>
+      <c r="Q124" s="3"/>
+    </row>
+    <row r="125" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="2"/>
-      <c r="E125" s="7"/>
-      <c r="F125" s="7"/>
-      <c r="G125" s="8"/>
-      <c r="H125" s="8"/>
-      <c r="I125" s="3"/>
-      <c r="J125" s="3"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="7"/>
+      <c r="H125" s="7"/>
+      <c r="I125" s="8"/>
+      <c r="J125" s="8"/>
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
       <c r="M125" s="3"/>
       <c r="N125" s="3"/>
       <c r="O125" s="3"/>
-    </row>
-    <row r="126" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P125" s="3"/>
+      <c r="Q125" s="3"/>
+    </row>
+    <row r="126" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="2"/>
-      <c r="E126" s="7"/>
-      <c r="F126" s="7"/>
-      <c r="G126" s="8"/>
-      <c r="H126" s="8"/>
-      <c r="I126" s="3"/>
-      <c r="J126" s="3"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="7"/>
+      <c r="H126" s="7"/>
+      <c r="I126" s="8"/>
+      <c r="J126" s="8"/>
       <c r="K126" s="3"/>
       <c r="L126" s="3"/>
       <c r="M126" s="3"/>
       <c r="N126" s="3"/>
       <c r="O126" s="3"/>
-    </row>
-    <row r="127" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P126" s="3"/>
+      <c r="Q126" s="3"/>
+    </row>
+    <row r="127" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="2"/>
-      <c r="E127" s="7"/>
-      <c r="F127" s="7"/>
-      <c r="G127" s="8"/>
-      <c r="H127" s="8"/>
-      <c r="I127" s="3"/>
-      <c r="J127" s="3"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="7"/>
+      <c r="H127" s="7"/>
+      <c r="I127" s="8"/>
+      <c r="J127" s="8"/>
       <c r="K127" s="3"/>
       <c r="L127" s="3"/>
       <c r="M127" s="3"/>
       <c r="N127" s="3"/>
       <c r="O127" s="3"/>
-    </row>
-    <row r="128" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P127" s="3"/>
+      <c r="Q127" s="3"/>
+    </row>
+    <row r="128" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="2"/>
-      <c r="E128" s="7"/>
-      <c r="F128" s="7"/>
-      <c r="G128" s="8"/>
-      <c r="H128" s="8"/>
-      <c r="I128" s="3"/>
-      <c r="J128" s="3"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="7"/>
+      <c r="H128" s="7"/>
+      <c r="I128" s="8"/>
+      <c r="J128" s="8"/>
       <c r="K128" s="3"/>
       <c r="L128" s="3"/>
       <c r="M128" s="3"/>
       <c r="N128" s="3"/>
       <c r="O128" s="3"/>
-    </row>
-    <row r="129" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P128" s="3"/>
+      <c r="Q128" s="3"/>
+    </row>
+    <row r="129" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="2"/>
-      <c r="E129" s="7"/>
-      <c r="F129" s="7"/>
-      <c r="G129" s="8"/>
-      <c r="H129" s="8"/>
-      <c r="I129" s="3"/>
-      <c r="J129" s="3"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="7"/>
+      <c r="H129" s="7"/>
+      <c r="I129" s="8"/>
+      <c r="J129" s="8"/>
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
       <c r="M129" s="3"/>
       <c r="N129" s="3"/>
       <c r="O129" s="3"/>
-    </row>
-    <row r="130" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P129" s="3"/>
+      <c r="Q129" s="3"/>
+    </row>
+    <row r="130" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="2"/>
-      <c r="E130" s="7"/>
-      <c r="F130" s="7"/>
-      <c r="G130" s="8"/>
-      <c r="H130" s="8"/>
-      <c r="I130" s="3"/>
-      <c r="J130" s="3"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="7"/>
+      <c r="H130" s="7"/>
+      <c r="I130" s="8"/>
+      <c r="J130" s="8"/>
       <c r="K130" s="3"/>
       <c r="L130" s="3"/>
       <c r="M130" s="3"/>
       <c r="N130" s="3"/>
       <c r="O130" s="3"/>
-    </row>
-    <row r="131" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P130" s="3"/>
+      <c r="Q130" s="3"/>
+    </row>
+    <row r="131" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="2"/>
-      <c r="E131" s="7"/>
-      <c r="F131" s="7"/>
-      <c r="G131" s="8"/>
-      <c r="H131" s="8"/>
-      <c r="I131" s="3"/>
-      <c r="J131" s="3"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="7"/>
+      <c r="H131" s="7"/>
+      <c r="I131" s="8"/>
+      <c r="J131" s="8"/>
       <c r="K131" s="3"/>
       <c r="L131" s="3"/>
       <c r="M131" s="3"/>
       <c r="N131" s="3"/>
       <c r="O131" s="3"/>
-    </row>
-    <row r="132" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P131" s="3"/>
+      <c r="Q131" s="3"/>
+    </row>
+    <row r="132" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
       <c r="D132" s="2"/>
-      <c r="E132" s="7"/>
-      <c r="F132" s="7"/>
-      <c r="G132" s="8"/>
-      <c r="H132" s="8"/>
-      <c r="I132" s="3"/>
-      <c r="J132" s="3"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="7"/>
+      <c r="H132" s="7"/>
+      <c r="I132" s="8"/>
+      <c r="J132" s="8"/>
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
       <c r="M132" s="3"/>
       <c r="N132" s="3"/>
       <c r="O132" s="3"/>
-    </row>
-    <row r="133" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P132" s="3"/>
+      <c r="Q132" s="3"/>
+    </row>
+    <row r="133" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="2"/>
-      <c r="E133" s="7"/>
-      <c r="F133" s="7"/>
-      <c r="G133" s="8"/>
-      <c r="H133" s="8"/>
-      <c r="I133" s="3"/>
-      <c r="J133" s="3"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="7"/>
+      <c r="H133" s="7"/>
+      <c r="I133" s="8"/>
+      <c r="J133" s="8"/>
       <c r="K133" s="3"/>
       <c r="L133" s="3"/>
       <c r="M133" s="3"/>
       <c r="N133" s="3"/>
       <c r="O133" s="3"/>
-    </row>
-    <row r="134" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P133" s="3"/>
+      <c r="Q133" s="3"/>
+    </row>
+    <row r="134" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="2"/>
-      <c r="E134" s="7"/>
-      <c r="F134" s="7"/>
-      <c r="G134" s="8"/>
-      <c r="H134" s="8"/>
-      <c r="I134" s="3"/>
-      <c r="J134" s="3"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="7"/>
+      <c r="H134" s="7"/>
+      <c r="I134" s="8"/>
+      <c r="J134" s="8"/>
       <c r="K134" s="3"/>
       <c r="L134" s="3"/>
       <c r="M134" s="3"/>
       <c r="N134" s="3"/>
       <c r="O134" s="3"/>
-    </row>
-    <row r="135" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P134" s="3"/>
+      <c r="Q134" s="3"/>
+    </row>
+    <row r="135" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="2"/>
-      <c r="E135" s="7"/>
-      <c r="F135" s="7"/>
-      <c r="G135" s="8"/>
-      <c r="H135" s="8"/>
-      <c r="I135" s="3"/>
-      <c r="J135" s="3"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="7"/>
+      <c r="H135" s="7"/>
+      <c r="I135" s="8"/>
+      <c r="J135" s="8"/>
       <c r="K135" s="3"/>
       <c r="L135" s="3"/>
       <c r="M135" s="3"/>
       <c r="N135" s="3"/>
       <c r="O135" s="3"/>
-    </row>
-    <row r="136" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P135" s="3"/>
+      <c r="Q135" s="3"/>
+    </row>
+    <row r="136" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
-      <c r="E136" s="8"/>
-      <c r="F136" s="8"/>
+      <c r="E136" s="3"/>
+      <c r="F136" s="3"/>
       <c r="G136" s="8"/>
       <c r="H136" s="8"/>
-      <c r="I136" s="3"/>
-      <c r="J136" s="3"/>
+      <c r="I136" s="8"/>
+      <c r="J136" s="8"/>
       <c r="K136" s="3"/>
       <c r="L136" s="3"/>
       <c r="M136" s="3"/>
       <c r="N136" s="3"/>
       <c r="O136" s="3"/>
-    </row>
-    <row r="137" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P136" s="3"/>
+      <c r="Q136" s="3"/>
+    </row>
+    <row r="137" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B137" s="9"/>
     </row>
-    <row r="139" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B139" s="9"/>
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
-      <c r="O139" s="9"/>
-    </row>
-    <row r="140" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E139" s="9"/>
+      <c r="F139" s="9"/>
+      <c r="Q139" s="9"/>
+    </row>
+    <row r="140" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
       <c r="D140" s="9"/>
-    </row>
-    <row r="141" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E140" s="9"/>
+      <c r="F140" s="9"/>
+    </row>
+    <row r="141" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
-    </row>
-    <row r="142" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E141" s="9"/>
+      <c r="F141" s="9"/>
+    </row>
+    <row r="142" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
-    </row>
-    <row r="143" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E142" s="9"/>
+      <c r="F142" s="9"/>
+    </row>
+    <row r="143" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
-    </row>
-    <row r="144" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E143" s="9"/>
+      <c r="F143" s="9"/>
+    </row>
+    <row r="144" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
       <c r="D144" s="9"/>
-    </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E144" s="9"/>
+      <c r="F144" s="9"/>
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B145" s="9"/>
       <c r="C145" s="9"/>
       <c r="D145" s="9"/>
-    </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E145" s="9"/>
+      <c r="F145" s="9"/>
+    </row>
+    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B146" s="9"/>
       <c r="C146" s="9"/>
       <c r="D146" s="9"/>
-    </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E146" s="9"/>
+      <c r="F146" s="9"/>
+    </row>
+    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
       <c r="D147" s="9"/>
-    </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E147" s="9"/>
+      <c r="F147" s="9"/>
+    </row>
+    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B148" s="9"/>
       <c r="C148" s="9"/>
       <c r="D148" s="9"/>
-    </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E148" s="9"/>
+      <c r="F148" s="9"/>
+    </row>
+    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B149" s="9"/>
       <c r="C149" s="9"/>
       <c r="D149" s="9"/>
-    </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E149" s="9"/>
+      <c r="F149" s="9"/>
+    </row>
+    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
       <c r="D150" s="9"/>
-    </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E150" s="9"/>
+      <c r="F150" s="9"/>
+    </row>
+    <row r="151" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B151" s="9"/>
       <c r="C151" s="9"/>
       <c r="D151" s="9"/>
-    </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E151" s="9"/>
+      <c r="F151" s="9"/>
+    </row>
+    <row r="152" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B152" s="9"/>
       <c r="C152" s="9"/>
       <c r="D152" s="9"/>
-    </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E152" s="9"/>
+      <c r="F152" s="9"/>
+    </row>
+    <row r="153" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B153" s="9"/>
       <c r="C153" s="9"/>
       <c r="D153" s="9"/>
-    </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E153" s="9"/>
+      <c r="F153" s="9"/>
+    </row>
+    <row r="154" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B154" s="9"/>
       <c r="C154" s="9"/>
       <c r="D154" s="9"/>
-    </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E154" s="9"/>
+      <c r="F154" s="9"/>
+    </row>
+    <row r="155" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B155" s="9"/>
       <c r="C155" s="9"/>
       <c r="D155" s="9"/>
-    </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E155" s="9"/>
+      <c r="F155" s="9"/>
+    </row>
+    <row r="156" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B156" s="9"/>
       <c r="C156" s="9"/>
       <c r="D156" s="9"/>
-    </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E156" s="9"/>
+      <c r="F156" s="9"/>
+    </row>
+    <row r="157" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B157" s="9"/>
       <c r="C157" s="9"/>
       <c r="D157" s="9"/>
-    </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E157" s="9"/>
+      <c r="F157" s="9"/>
+    </row>
+    <row r="158" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B158" s="9"/>
       <c r="C158" s="9"/>
       <c r="D158" s="9"/>
-    </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E158" s="9"/>
+      <c r="F158" s="9"/>
+    </row>
+    <row r="159" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
       <c r="D159" s="9"/>
-    </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E159" s="9"/>
+      <c r="F159" s="9"/>
+    </row>
+    <row r="160" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B160" s="9"/>
       <c r="C160" s="9"/>
       <c r="D160" s="9"/>
-    </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E160" s="9"/>
+      <c r="F160" s="9"/>
+    </row>
+    <row r="161" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B161" s="9"/>
       <c r="C161" s="9"/>
       <c r="D161" s="9"/>
-    </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E161" s="9"/>
+      <c r="F161" s="9"/>
+    </row>
+    <row r="162" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B162" s="9"/>
       <c r="C162" s="9"/>
       <c r="D162" s="9"/>
-    </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E162" s="9"/>
+      <c r="F162" s="9"/>
+    </row>
+    <row r="163" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B163" s="9"/>
       <c r="C163" s="9"/>
       <c r="D163" s="9"/>
-    </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E163" s="9"/>
+      <c r="F163" s="9"/>
+    </row>
+    <row r="164" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B164" s="9"/>
       <c r="C164" s="9"/>
       <c r="D164" s="9"/>
-    </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E164" s="9"/>
+      <c r="F164" s="9"/>
+    </row>
+    <row r="165" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B165" s="9"/>
       <c r="C165" s="9"/>
       <c r="D165" s="9"/>
-    </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E165" s="9"/>
+      <c r="F165" s="9"/>
+    </row>
+    <row r="166" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B166" s="9"/>
       <c r="C166" s="9"/>
       <c r="D166" s="9"/>
-    </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E166" s="9"/>
+      <c r="F166" s="9"/>
+    </row>
+    <row r="167" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B167" s="9"/>
       <c r="C167" s="9"/>
       <c r="D167" s="9"/>
-    </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E167" s="9"/>
+      <c r="F167" s="9"/>
+    </row>
+    <row r="168" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B168" s="9"/>
       <c r="C168" s="9"/>
       <c r="D168" s="9"/>
-    </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E168" s="9"/>
+      <c r="F168" s="9"/>
+    </row>
+    <row r="169" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B169" s="9"/>
       <c r="C169" s="9"/>
       <c r="D169" s="9"/>
-    </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E169" s="9"/>
+      <c r="F169" s="9"/>
+    </row>
+    <row r="170" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B170" s="9"/>
       <c r="C170" s="9"/>
       <c r="D170" s="9"/>
-    </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E170" s="9"/>
+      <c r="F170" s="9"/>
+    </row>
+    <row r="171" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B171" s="9"/>
       <c r="C171" s="9"/>
       <c r="D171" s="9"/>
-    </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E171" s="9"/>
+      <c r="F171" s="9"/>
+    </row>
+    <row r="172" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B172" s="9"/>
       <c r="C172" s="9"/>
       <c r="D172" s="9"/>
-    </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E172" s="9"/>
+      <c r="F172" s="9"/>
+    </row>
+    <row r="173" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B173" s="9"/>
       <c r="C173" s="9"/>
       <c r="D173" s="9"/>
-    </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E173" s="9"/>
+      <c r="F173" s="9"/>
+    </row>
+    <row r="174" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B174" s="9"/>
       <c r="C174" s="9"/>
       <c r="D174" s="9"/>
-    </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E174" s="9"/>
+      <c r="F174" s="9"/>
+    </row>
+    <row r="175" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B175" s="9"/>
       <c r="C175" s="9"/>
       <c r="D175" s="9"/>
-    </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E175" s="9"/>
+      <c r="F175" s="9"/>
+    </row>
+    <row r="176" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B176" s="9"/>
       <c r="C176" s="9"/>
       <c r="D176" s="9"/>
-    </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E176" s="9"/>
+      <c r="F176" s="9"/>
+    </row>
+    <row r="177" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B177" s="9"/>
       <c r="C177" s="9"/>
       <c r="D177" s="9"/>
-    </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E177" s="9"/>
+      <c r="F177" s="9"/>
+    </row>
+    <row r="178" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B178" s="9"/>
       <c r="C178" s="9"/>
       <c r="D178" s="9"/>
-    </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E178" s="9"/>
+      <c r="F178" s="9"/>
+    </row>
+    <row r="179" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B179" s="9"/>
       <c r="C179" s="9"/>
       <c r="D179" s="9"/>
-    </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E179" s="9"/>
+      <c r="F179" s="9"/>
+    </row>
+    <row r="180" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B180" s="9"/>
       <c r="C180" s="9"/>
       <c r="D180" s="9"/>
-    </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E180" s="9"/>
+      <c r="F180" s="9"/>
+    </row>
+    <row r="181" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B181" s="9"/>
       <c r="C181" s="9"/>
       <c r="D181" s="9"/>
-    </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E181" s="9"/>
+      <c r="F181" s="9"/>
+    </row>
+    <row r="182" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B182" s="9"/>
       <c r="C182" s="9"/>
       <c r="D182" s="9"/>
-    </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E182" s="9"/>
+      <c r="F182" s="9"/>
+    </row>
+    <row r="183" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B183" s="9"/>
       <c r="C183" s="9"/>
       <c r="D183" s="9"/>
-    </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E183" s="9"/>
+      <c r="F183" s="9"/>
+    </row>
+    <row r="184" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B184" s="9"/>
       <c r="C184" s="9"/>
       <c r="D184" s="9"/>
-    </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E184" s="9"/>
+      <c r="F184" s="9"/>
+    </row>
+    <row r="185" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B185" s="9"/>
       <c r="C185" s="9"/>
       <c r="D185" s="9"/>
-    </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E185" s="9"/>
+      <c r="F185" s="9"/>
+    </row>
+    <row r="186" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B186" s="9"/>
       <c r="C186" s="9"/>
       <c r="D186" s="9"/>
-    </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E186" s="9"/>
+      <c r="F186" s="9"/>
+    </row>
+    <row r="187" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B187" s="9"/>
       <c r="C187" s="9"/>
       <c r="D187" s="9"/>
-    </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E187" s="9"/>
+      <c r="F187" s="9"/>
+    </row>
+    <row r="188" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B188" s="9"/>
       <c r="C188" s="9"/>
       <c r="D188" s="9"/>
-    </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E188" s="9"/>
+      <c r="F188" s="9"/>
+    </row>
+    <row r="189" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B189" s="9"/>
       <c r="C189" s="9"/>
       <c r="D189" s="9"/>
-    </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E189" s="9"/>
+      <c r="F189" s="9"/>
+    </row>
+    <row r="190" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B190" s="9"/>
       <c r="C190" s="9"/>
       <c r="D190" s="9"/>
-    </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E190" s="9"/>
+      <c r="F190" s="9"/>
+    </row>
+    <row r="191" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B191" s="9"/>
       <c r="C191" s="9"/>
       <c r="D191" s="9"/>
-    </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E191" s="9"/>
+      <c r="F191" s="9"/>
+    </row>
+    <row r="192" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B192" s="9"/>
       <c r="C192" s="9"/>
       <c r="D192" s="9"/>
-    </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E192" s="9"/>
+      <c r="F192" s="9"/>
+    </row>
+    <row r="193" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B193" s="9"/>
       <c r="C193" s="9"/>
       <c r="D193" s="9"/>
-    </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E193" s="9"/>
+      <c r="F193" s="9"/>
+    </row>
+    <row r="194" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B194" s="9"/>
       <c r="C194" s="9"/>
       <c r="D194" s="9"/>
-    </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E194" s="9"/>
+      <c r="F194" s="9"/>
+    </row>
+    <row r="195" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B195" s="9"/>
       <c r="C195" s="9"/>
       <c r="D195" s="9"/>
-    </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E195" s="9"/>
+      <c r="F195" s="9"/>
+    </row>
+    <row r="196" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B196" s="9"/>
       <c r="C196" s="9"/>
       <c r="D196" s="9"/>
-    </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E196" s="9"/>
+      <c r="F196" s="9"/>
+    </row>
+    <row r="197" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B197" s="9"/>
       <c r="C197" s="9"/>
       <c r="D197" s="9"/>
-    </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E197" s="9"/>
+      <c r="F197" s="9"/>
+    </row>
+    <row r="198" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B198" s="9"/>
       <c r="C198" s="9"/>
       <c r="D198" s="9"/>
-    </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E198" s="9"/>
+      <c r="F198" s="9"/>
+    </row>
+    <row r="199" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B199" s="9"/>
       <c r="C199" s="9"/>
       <c r="D199" s="9"/>
-    </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E199" s="9"/>
+      <c r="F199" s="9"/>
+    </row>
+    <row r="200" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B200" s="9"/>
       <c r="C200" s="9"/>
       <c r="D200" s="9"/>
-    </row>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E200" s="9"/>
+      <c r="F200" s="9"/>
+    </row>
+    <row r="201" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B201" s="9"/>
       <c r="C201" s="9"/>
       <c r="D201" s="9"/>
-    </row>
-    <row r="202" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E201" s="9"/>
+      <c r="F201" s="9"/>
+    </row>
+    <row r="202" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B202" s="9"/>
       <c r="C202" s="9"/>
       <c r="D202" s="9"/>
-    </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E202" s="9"/>
+      <c r="F202" s="9"/>
+    </row>
+    <row r="203" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B203" s="9"/>
       <c r="C203" s="9"/>
       <c r="D203" s="9"/>
-    </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E203" s="9"/>
+      <c r="F203" s="9"/>
+    </row>
+    <row r="204" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B204" s="9"/>
       <c r="C204" s="9"/>
       <c r="D204" s="9"/>
-    </row>
-    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E204" s="9"/>
+      <c r="F204" s="9"/>
+    </row>
+    <row r="205" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B205" s="9"/>
       <c r="C205" s="9"/>
       <c r="D205" s="9"/>
-    </row>
-    <row r="206" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E205" s="9"/>
+      <c r="F205" s="9"/>
+    </row>
+    <row r="206" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B206" s="9"/>
       <c r="C206" s="9"/>
       <c r="D206" s="9"/>
-    </row>
-    <row r="207" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E206" s="9"/>
+      <c r="F206" s="9"/>
+    </row>
+    <row r="207" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B207" s="9"/>
       <c r="C207" s="9"/>
       <c r="D207" s="9"/>
-    </row>
-    <row r="208" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E207" s="9"/>
+      <c r="F207" s="9"/>
+    </row>
+    <row r="208" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B208" s="9"/>
       <c r="C208" s="9"/>
       <c r="D208" s="9"/>
-    </row>
-    <row r="209" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E208" s="9"/>
+      <c r="F208" s="9"/>
+    </row>
+    <row r="209" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B209" s="9"/>
       <c r="C209" s="9"/>
       <c r="D209" s="9"/>
-    </row>
-    <row r="210" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E209" s="9"/>
+      <c r="F209" s="9"/>
+    </row>
+    <row r="210" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B210" s="9"/>
       <c r="C210" s="9"/>
       <c r="D210" s="9"/>
-    </row>
-    <row r="211" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E210" s="9"/>
+      <c r="F210" s="9"/>
+    </row>
+    <row r="211" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B211" s="9"/>
       <c r="C211" s="9"/>
       <c r="D211" s="9"/>
-    </row>
-    <row r="212" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E211" s="9"/>
+      <c r="F211" s="9"/>
+    </row>
+    <row r="212" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B212" s="9"/>
       <c r="C212" s="9"/>
       <c r="D212" s="9"/>
-    </row>
-    <row r="213" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E212" s="9"/>
+      <c r="F212" s="9"/>
+    </row>
+    <row r="213" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B213" s="9"/>
       <c r="C213" s="9"/>
       <c r="D213" s="9"/>
-    </row>
-    <row r="214" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E213" s="9"/>
+      <c r="F213" s="9"/>
+    </row>
+    <row r="214" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B214" s="9"/>
       <c r="C214" s="9"/>
       <c r="D214" s="9"/>
-    </row>
-    <row r="215" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E214" s="9"/>
+      <c r="F214" s="9"/>
+    </row>
+    <row r="215" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B215" s="9"/>
       <c r="C215" s="9"/>
       <c r="D215" s="9"/>
-    </row>
-    <row r="216" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E215" s="9"/>
+      <c r="F215" s="9"/>
+    </row>
+    <row r="216" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B216" s="9"/>
       <c r="C216" s="9"/>
       <c r="D216" s="9"/>
-    </row>
-    <row r="217" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E216" s="9"/>
+      <c r="F216" s="9"/>
+    </row>
+    <row r="217" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B217" s="9"/>
       <c r="C217" s="9"/>
       <c r="D217" s="9"/>
-    </row>
-    <row r="218" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E217" s="9"/>
+      <c r="F217" s="9"/>
+    </row>
+    <row r="218" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B218" s="9"/>
       <c r="C218" s="9"/>
       <c r="D218" s="9"/>
-    </row>
-    <row r="219" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E218" s="9"/>
+      <c r="F218" s="9"/>
+    </row>
+    <row r="219" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B219" s="9"/>
       <c r="C219" s="9"/>
       <c r="D219" s="9"/>
-    </row>
-    <row r="220" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E219" s="9"/>
+      <c r="F219" s="9"/>
+    </row>
+    <row r="220" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B220" s="9"/>
       <c r="C220" s="9"/>
       <c r="D220" s="9"/>
-    </row>
-    <row r="221" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E220" s="9"/>
+      <c r="F220" s="9"/>
+    </row>
+    <row r="221" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B221" s="9"/>
       <c r="C221" s="9"/>
       <c r="D221" s="9"/>
-    </row>
-    <row r="222" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E221" s="9"/>
+      <c r="F221" s="9"/>
+    </row>
+    <row r="222" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B222" s="9"/>
       <c r="C222" s="9"/>
       <c r="D222" s="9"/>
-    </row>
-    <row r="223" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E222" s="9"/>
+      <c r="F222" s="9"/>
+    </row>
+    <row r="223" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B223" s="9"/>
       <c r="C223" s="9"/>
       <c r="D223" s="9"/>
-    </row>
-    <row r="224" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E223" s="9"/>
+      <c r="F223" s="9"/>
+    </row>
+    <row r="224" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B224" s="9"/>
       <c r="C224" s="9"/>
       <c r="D224" s="9"/>
-    </row>
-    <row r="225" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E224" s="9"/>
+      <c r="F224" s="9"/>
+    </row>
+    <row r="225" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B225" s="9"/>
       <c r="C225" s="9"/>
       <c r="D225" s="9"/>
-    </row>
-    <row r="226" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E225" s="9"/>
+      <c r="F225" s="9"/>
+    </row>
+    <row r="226" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B226" s="9"/>
       <c r="C226" s="9"/>
       <c r="D226" s="9"/>
-    </row>
-    <row r="227" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E226" s="9"/>
+      <c r="F226" s="9"/>
+    </row>
+    <row r="227" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B227" s="9"/>
       <c r="C227" s="9"/>
       <c r="D227" s="9"/>
-    </row>
-    <row r="228" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E227" s="9"/>
+      <c r="F227" s="9"/>
+    </row>
+    <row r="228" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B228" s="9"/>
       <c r="C228" s="9"/>
       <c r="D228" s="9"/>
-    </row>
-    <row r="229" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E228" s="9"/>
+      <c r="F228" s="9"/>
+    </row>
+    <row r="229" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B229" s="9"/>
       <c r="C229" s="9"/>
       <c r="D229" s="9"/>
-    </row>
-    <row r="230" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E229" s="9"/>
+      <c r="F229" s="9"/>
+    </row>
+    <row r="230" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B230" s="9"/>
       <c r="C230" s="9"/>
       <c r="D230" s="9"/>
-    </row>
-    <row r="231" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E230" s="9"/>
+      <c r="F230" s="9"/>
+    </row>
+    <row r="231" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B231" s="9"/>
       <c r="C231" s="9"/>
       <c r="D231" s="9"/>
-    </row>
-    <row r="232" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E231" s="9"/>
+      <c r="F231" s="9"/>
+    </row>
+    <row r="232" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B232" s="9"/>
       <c r="C232" s="9"/>
       <c r="D232" s="9"/>
-    </row>
-    <row r="233" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E232" s="9"/>
+      <c r="F232" s="9"/>
+    </row>
+    <row r="233" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B233" s="9"/>
       <c r="C233" s="9"/>
       <c r="D233" s="9"/>
-    </row>
-    <row r="234" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E233" s="9"/>
+      <c r="F233" s="9"/>
+    </row>
+    <row r="234" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B234" s="9"/>
       <c r="C234" s="9"/>
       <c r="D234" s="9"/>
-    </row>
-    <row r="235" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E234" s="9"/>
+      <c r="F234" s="9"/>
+    </row>
+    <row r="235" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B235" s="9"/>
       <c r="C235" s="9"/>
       <c r="D235" s="9"/>
-    </row>
-    <row r="236" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E235" s="9"/>
+      <c r="F235" s="9"/>
+    </row>
+    <row r="236" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B236" s="9"/>
       <c r="C236" s="9"/>
       <c r="D236" s="9"/>
-    </row>
-    <row r="237" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E236" s="9"/>
+      <c r="F236" s="9"/>
+    </row>
+    <row r="237" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B237" s="9"/>
       <c r="C237" s="9"/>
       <c r="D237" s="9"/>
-    </row>
-    <row r="238" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E237" s="9"/>
+      <c r="F237" s="9"/>
+    </row>
+    <row r="238" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B238" s="9"/>
       <c r="C238" s="9"/>
       <c r="D238" s="9"/>
-    </row>
-    <row r="239" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E238" s="9"/>
+      <c r="F238" s="9"/>
+    </row>
+    <row r="239" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B239" s="9"/>
       <c r="C239" s="9"/>
       <c r="D239" s="9"/>
-    </row>
-    <row r="240" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E239" s="9"/>
+      <c r="F239" s="9"/>
+    </row>
+    <row r="240" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B240" s="9"/>
       <c r="C240" s="9"/>
       <c r="D240" s="9"/>
-    </row>
-    <row r="241" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E240" s="9"/>
+      <c r="F240" s="9"/>
+    </row>
+    <row r="241" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B241" s="9"/>
       <c r="C241" s="9"/>
       <c r="D241" s="9"/>
-    </row>
-    <row r="242" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E241" s="9"/>
+      <c r="F241" s="9"/>
+    </row>
+    <row r="242" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B242" s="9"/>
       <c r="C242" s="9"/>
       <c r="D242" s="9"/>
-    </row>
-    <row r="243" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E242" s="9"/>
+      <c r="F242" s="9"/>
+    </row>
+    <row r="243" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B243" s="9"/>
       <c r="C243" s="9"/>
       <c r="D243" s="9"/>
-    </row>
-    <row r="244" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E243" s="9"/>
+      <c r="F243" s="9"/>
+    </row>
+    <row r="244" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B244" s="9"/>
       <c r="C244" s="9"/>
       <c r="D244" s="9"/>
+      <c r="E244" s="9"/>
+      <c r="F244" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="B2:Q2"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
